--- a/raw_data/20200818_saline/20200818_Sensor3_Test_43.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_43.xlsx
@@ -1,479 +1,895 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE75A0C-602C-4A52-9D53-CA9565BD1696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>38361.261821</v>
       </c>
@@ -481,73 +897,73 @@
         <v>10.655906</v>
       </c>
       <c r="C2" s="1">
-        <v>1155.350000</v>
+        <v>1155.3499999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-233.536000</v>
+        <v>-233.536</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>38371.597418</v>
+        <v>38371.597417999998</v>
       </c>
       <c r="G2" s="1">
-        <v>10.658777</v>
+        <v>10.658777000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1172.550000</v>
+        <v>1172.55</v>
       </c>
       <c r="I2" s="1">
-        <v>-197.293000</v>
+        <v>-197.29300000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>38381.736637</v>
+        <v>38381.736637000002</v>
       </c>
       <c r="L2" s="1">
-        <v>10.661594</v>
+        <v>10.661593999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1198.400000</v>
+        <v>1198.4000000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-141.798000</v>
+        <v>-141.798</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>38391.952239</v>
+        <v>38391.952238999998</v>
       </c>
       <c r="Q2" s="1">
         <v>10.664431</v>
       </c>
       <c r="R2" s="1">
-        <v>1206.570000</v>
+        <v>1206.57</v>
       </c>
       <c r="S2" s="1">
-        <v>-122.920000</v>
+        <v>-122.92</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>38402.546823</v>
+        <v>38402.546822999997</v>
       </c>
       <c r="V2" s="1">
-        <v>10.667374</v>
+        <v>10.667374000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1215.070000</v>
+        <v>1215.07</v>
       </c>
       <c r="X2" s="1">
-        <v>-105.022000</v>
+        <v>-105.02200000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>38412.957811</v>
@@ -556,181 +972,181 @@
         <v>10.670266</v>
       </c>
       <c r="AB2" s="1">
-        <v>1224.190000</v>
+        <v>1224.19</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.982300</v>
+        <v>-89.982299999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>38423.540949</v>
+        <v>38423.540949000002</v>
       </c>
       <c r="AF2" s="1">
         <v>10.673206</v>
       </c>
       <c r="AG2" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.038900</v>
+        <v>-86.038899999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>38433.980248</v>
       </c>
       <c r="AK2" s="1">
-        <v>10.676106</v>
+        <v>10.676106000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.725500</v>
+        <v>-89.725499999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>38444.859993</v>
+        <v>38444.859992999998</v>
       </c>
       <c r="AP2" s="1">
         <v>10.679128</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1245.600000</v>
+        <v>1245.5999999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.814000</v>
+        <v>-101.81399999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>38455.647981</v>
+        <v>38455.647981000002</v>
       </c>
       <c r="AU2" s="1">
         <v>10.682124</v>
       </c>
       <c r="AV2" s="1">
-        <v>1255.650000</v>
+        <v>1255.6500000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.317000</v>
+        <v>-121.31699999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>38466.820396</v>
+        <v>38466.820396000003</v>
       </c>
       <c r="AZ2" s="1">
         <v>10.685228</v>
       </c>
       <c r="BA2" s="1">
-        <v>1264.140000</v>
+        <v>1264.1400000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.909000</v>
+        <v>-138.90899999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>38477.768095</v>
+        <v>38477.768094999999</v>
       </c>
       <c r="BE2" s="1">
         <v>10.688269</v>
       </c>
       <c r="BF2" s="1">
-        <v>1304.090000</v>
+        <v>1304.0899999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.665000</v>
+        <v>-221.66499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>38488.778790</v>
+        <v>38488.778789999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>10.691327</v>
+        <v>10.691326999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1373.410000</v>
+        <v>1373.41</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.023000</v>
+        <v>-360.02300000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>38500.561711</v>
+        <v>38500.561711000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>10.694600</v>
+        <v>10.694599999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1487.630000</v>
+        <v>1487.63</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-586.178000</v>
+        <v>-586.178</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>38510.570482</v>
+        <v>38510.570482000003</v>
       </c>
       <c r="BT2" s="1">
         <v>10.697381</v>
       </c>
       <c r="BU2" s="1">
-        <v>1619.610000</v>
+        <v>1619.61</v>
       </c>
       <c r="BV2" s="1">
-        <v>-841.877000</v>
+        <v>-841.87699999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>38521.224548</v>
+        <v>38521.224547999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>10.700340</v>
+        <v>10.700340000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1772.980000</v>
+        <v>1772.98</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1121.550000</v>
+        <v>-1121.55</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>38532.671256</v>
+        <v>38532.671256000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>10.703520</v>
+        <v>10.703519999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2195.970000</v>
+        <v>2195.9699999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1799.490000</v>
+        <v>-1799.49</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>38361.679913</v>
       </c>
@@ -738,617 +1154,617 @@
         <v>10.656022</v>
       </c>
       <c r="C3" s="1">
-        <v>1155.290000</v>
+        <v>1155.29</v>
       </c>
       <c r="D3" s="1">
-        <v>-233.527000</v>
+        <v>-233.52699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>38371.710505</v>
+        <v>38371.710505000003</v>
       </c>
       <c r="G3" s="1">
-        <v>10.658808</v>
+        <v>10.658808000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1172.350000</v>
+        <v>1172.3499999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-197.450000</v>
+        <v>-197.45</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>38381.846253</v>
+        <v>38381.846253000003</v>
       </c>
       <c r="L3" s="1">
         <v>10.661624</v>
       </c>
       <c r="M3" s="1">
-        <v>1198.420000</v>
+        <v>1198.42</v>
       </c>
       <c r="N3" s="1">
-        <v>-141.833000</v>
+        <v>-141.833</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>38392.300961</v>
+        <v>38392.300961000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>10.664528</v>
+        <v>10.664528000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1206.630000</v>
+        <v>1206.6300000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-122.937000</v>
+        <v>-122.937</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>38402.897987</v>
+        <v>38402.897986999997</v>
       </c>
       <c r="V3" s="1">
         <v>10.667472</v>
       </c>
       <c r="W3" s="1">
-        <v>1215.070000</v>
+        <v>1215.07</v>
       </c>
       <c r="X3" s="1">
-        <v>-104.986000</v>
+        <v>-104.986</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>38413.344690</v>
+        <v>38413.344689999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>10.670374</v>
+        <v>10.670374000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1224.070000</v>
+        <v>1224.07</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.957400</v>
+        <v>-89.957400000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>38424.249732</v>
+        <v>38424.249731999997</v>
       </c>
       <c r="AF3" s="1">
         <v>10.673403</v>
       </c>
       <c r="AG3" s="1">
-        <v>1229.570000</v>
+        <v>1229.57</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.009600</v>
+        <v>-86.009600000000006</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>38434.712375</v>
+        <v>38434.712375000003</v>
       </c>
       <c r="AK3" s="1">
         <v>10.676309</v>
       </c>
       <c r="AL3" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.726000</v>
+        <v>-89.725999999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>38445.252358</v>
+        <v>38445.252357999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>10.679237</v>
+        <v>10.679237000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1245.560000</v>
+        <v>1245.56</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.833000</v>
+        <v>-101.833</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>38456.030891</v>
+        <v>38456.030891000002</v>
       </c>
       <c r="AU3" s="1">
         <v>10.682231</v>
       </c>
       <c r="AV3" s="1">
-        <v>1255.670000</v>
+        <v>1255.67</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.310000</v>
+        <v>-121.31</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>38467.204268</v>
+        <v>38467.204268000001</v>
       </c>
       <c r="AZ3" s="1">
         <v>10.685335</v>
       </c>
       <c r="BA3" s="1">
-        <v>1264.140000</v>
+        <v>1264.1400000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.930000</v>
+        <v>-138.93</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>38478.451550</v>
+        <v>38478.451549999998</v>
       </c>
       <c r="BE3" s="1">
         <v>10.688459</v>
       </c>
       <c r="BF3" s="1">
-        <v>1304.110000</v>
+        <v>1304.1099999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.705000</v>
+        <v>-221.70500000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>38489.509890</v>
+        <v>38489.509890000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>10.691531</v>
+        <v>10.691530999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1373.430000</v>
+        <v>1373.43</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.036000</v>
+        <v>-360.036</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>38500.675793</v>
+        <v>38500.675793000002</v>
       </c>
       <c r="BO3" s="1">
         <v>10.694632</v>
       </c>
       <c r="BP3" s="1">
-        <v>1487.580000</v>
+        <v>1487.58</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-586.230000</v>
+        <v>-586.23</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>38511.024323</v>
+        <v>38511.024322999998</v>
       </c>
       <c r="BT3" s="1">
         <v>10.697507</v>
       </c>
       <c r="BU3" s="1">
-        <v>1619.580000</v>
+        <v>1619.58</v>
       </c>
       <c r="BV3" s="1">
-        <v>-842.001000</v>
+        <v>-842.00099999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>38521.693267</v>
+        <v>38521.693267000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>10.700470</v>
+        <v>10.700469999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1773.050000</v>
+        <v>1773.05</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1121.650000</v>
+        <v>-1121.6500000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>38533.264468</v>
+        <v>38533.264468000001</v>
       </c>
       <c r="CD3" s="1">
         <v>10.703685</v>
       </c>
       <c r="CE3" s="1">
-        <v>2197.210000</v>
+        <v>2197.21</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1801.500000</v>
+        <v>-1801.5</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>38361.960680</v>
+        <v>38361.960679999997</v>
       </c>
       <c r="B4" s="1">
-        <v>10.656100</v>
+        <v>10.6561</v>
       </c>
       <c r="C4" s="1">
-        <v>1155.690000</v>
+        <v>1155.69</v>
       </c>
       <c r="D4" s="1">
-        <v>-233.299000</v>
+        <v>-233.29900000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>38372.046563</v>
+        <v>38372.046563000004</v>
       </c>
       <c r="G4" s="1">
-        <v>10.658902</v>
+        <v>10.658901999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1172.860000</v>
+        <v>1172.8599999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-197.384000</v>
+        <v>-197.38399999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>38382.178911</v>
+        <v>38382.178911000003</v>
       </c>
       <c r="L4" s="1">
         <v>10.661716</v>
       </c>
       <c r="M4" s="1">
-        <v>1198.510000</v>
+        <v>1198.51</v>
       </c>
       <c r="N4" s="1">
-        <v>-141.855000</v>
+        <v>-141.85499999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>38392.648622</v>
+        <v>38392.648622000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>10.664625</v>
+        <v>10.664624999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1206.660000</v>
+        <v>1206.6600000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-123.028000</v>
+        <v>-123.02800000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>38403.585904</v>
       </c>
       <c r="V4" s="1">
-        <v>10.667663</v>
+        <v>10.667662999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1215.100000</v>
+        <v>1215.0999999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-105.039000</v>
+        <v>-105.039</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>38414.039587</v>
+        <v>38414.039586999999</v>
       </c>
       <c r="AA4" s="1">
         <v>10.670567</v>
       </c>
       <c r="AB4" s="1">
-        <v>1224.180000</v>
+        <v>1224.18</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.696800</v>
+        <v>-89.696799999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>38424.594949</v>
+        <v>38424.594948999998</v>
       </c>
       <c r="AF4" s="1">
         <v>10.673499</v>
       </c>
       <c r="AG4" s="1">
-        <v>1229.580000</v>
+        <v>1229.58</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.040000</v>
+        <v>-86.04</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>38435.062520</v>
+        <v>38435.062519999999</v>
       </c>
       <c r="AK4" s="1">
         <v>10.676406</v>
       </c>
       <c r="AL4" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.728100</v>
+        <v>-89.728099999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>38445.630777</v>
+        <v>38445.630776999998</v>
       </c>
       <c r="AP4" s="1">
         <v>10.679342</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1245.570000</v>
+        <v>1245.57</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.835000</v>
+        <v>-101.83499999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>38456.701483</v>
+        <v>38456.701482999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>10.682417</v>
+        <v>10.682416999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1255.680000</v>
+        <v>1255.68</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.283000</v>
+        <v>-121.283</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>38467.871924</v>
+        <v>38467.871923999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>10.685520</v>
+        <v>10.68552</v>
       </c>
       <c r="BA4" s="1">
-        <v>1264.120000</v>
+        <v>1264.1199999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.927000</v>
+        <v>-138.92699999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>38478.874140</v>
+        <v>38478.87414</v>
       </c>
       <c r="BE4" s="1">
-        <v>10.688576</v>
+        <v>10.688575999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1304.120000</v>
+        <v>1304.1199999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.714000</v>
+        <v>-221.714</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>38489.977581</v>
+        <v>38489.977580999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>10.691660</v>
+        <v>10.691660000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1373.470000</v>
+        <v>1373.47</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.046000</v>
+        <v>-360.04599999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>38501.081545</v>
+        <v>38501.081545000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>10.694745</v>
+        <v>10.694744999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1487.610000</v>
+        <v>1487.61</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-586.239000</v>
+        <v>-586.23900000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>38511.451377</v>
+        <v>38511.451376999998</v>
       </c>
       <c r="BT4" s="1">
         <v>10.697625</v>
       </c>
       <c r="BU4" s="1">
-        <v>1619.570000</v>
+        <v>1619.57</v>
       </c>
       <c r="BV4" s="1">
-        <v>-841.944000</v>
+        <v>-841.94399999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>38522.152564</v>
+        <v>38522.152564000004</v>
       </c>
       <c r="BY4" s="1">
-        <v>10.700598</v>
+        <v>10.700597999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1773.060000</v>
+        <v>1773.06</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1121.500000</v>
+        <v>-1121.5</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>38533.798870</v>
+        <v>38533.798869999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>10.703833</v>
+        <v>10.703832999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2196.560000</v>
+        <v>2196.56</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1799.340000</v>
+        <v>-1799.34</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>38362.302422</v>
+        <v>38362.302422000001</v>
       </c>
       <c r="B5" s="1">
         <v>10.656195</v>
       </c>
       <c r="C5" s="1">
-        <v>1155.170000</v>
+        <v>1155.17</v>
       </c>
       <c r="D5" s="1">
-        <v>-233.361000</v>
+        <v>-233.36099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>38372.392505</v>
+        <v>38372.392505000003</v>
       </c>
       <c r="G5" s="1">
         <v>10.658998</v>
       </c>
       <c r="H5" s="1">
-        <v>1172.850000</v>
+        <v>1172.8499999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-198.353000</v>
+        <v>-198.35300000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>38382.529030</v>
+        <v>38382.529029999998</v>
       </c>
       <c r="L5" s="1">
         <v>10.661814</v>
       </c>
       <c r="M5" s="1">
-        <v>1198.570000</v>
+        <v>1198.57</v>
       </c>
       <c r="N5" s="1">
-        <v>-141.800000</v>
+        <v>-141.80000000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>38393.346989</v>
+        <v>38393.346988999998</v>
       </c>
       <c r="Q5" s="1">
         <v>10.664819</v>
       </c>
       <c r="R5" s="1">
-        <v>1206.610000</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-123.027000</v>
+        <v>-123.027</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>38403.931120</v>
+        <v>38403.931120000001</v>
       </c>
       <c r="V5" s="1">
         <v>10.667759</v>
       </c>
       <c r="W5" s="1">
-        <v>1215.020000</v>
+        <v>1215.02</v>
       </c>
       <c r="X5" s="1">
-        <v>-105.017000</v>
+        <v>-105.017</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>38414.392803</v>
+        <v>38414.392803000002</v>
       </c>
       <c r="AA5" s="1">
         <v>10.670665</v>
       </c>
       <c r="AB5" s="1">
-        <v>1224.120000</v>
+        <v>1224.1199999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.846400</v>
+        <v>-89.846400000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>38424.939171</v>
+        <v>38424.939170999998</v>
       </c>
       <c r="AF5" s="1">
         <v>10.673594</v>
       </c>
       <c r="AG5" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.066000</v>
+        <v>-86.066000000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>38435.413686</v>
@@ -1357,180 +1773,180 @@
         <v>10.676504</v>
       </c>
       <c r="AL5" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.727600</v>
+        <v>-89.727599999999995</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>38446.303849</v>
+        <v>38446.303849000004</v>
       </c>
       <c r="AP5" s="1">
         <v>10.679529</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1245.600000</v>
+        <v>1245.5999999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.792000</v>
+        <v>-101.792</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>38457.123082</v>
+        <v>38457.123081999998</v>
       </c>
       <c r="AU5" s="1">
         <v>10.682534</v>
       </c>
       <c r="AV5" s="1">
-        <v>1255.670000</v>
+        <v>1255.67</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.305000</v>
+        <v>-121.30500000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>38468.310346</v>
+        <v>38468.310345999998</v>
       </c>
       <c r="AZ5" s="1">
         <v>10.685642</v>
       </c>
       <c r="BA5" s="1">
-        <v>1264.100000</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.943000</v>
+        <v>-138.94300000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>38479.258539</v>
+        <v>38479.258539000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>10.688683</v>
+        <v>10.688682999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1304.060000</v>
+        <v>1304.06</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.666000</v>
+        <v>-221.666</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>38490.402680</v>
+        <v>38490.402679999999</v>
       </c>
       <c r="BJ5" s="1">
         <v>10.691779</v>
       </c>
       <c r="BK5" s="1">
-        <v>1373.440000</v>
+        <v>1373.44</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.030000</v>
+        <v>-360.03</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>38501.480800</v>
+        <v>38501.480799999998</v>
       </c>
       <c r="BO5" s="1">
         <v>10.694856</v>
       </c>
       <c r="BP5" s="1">
-        <v>1487.570000</v>
+        <v>1487.57</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-586.266000</v>
+        <v>-586.26599999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>38511.869010</v>
+        <v>38511.869010000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>10.697741</v>
+        <v>10.697741000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1619.610000</v>
+        <v>1619.61</v>
       </c>
       <c r="BV5" s="1">
-        <v>-842.079000</v>
+        <v>-842.07899999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>38522.599982</v>
       </c>
       <c r="BY5" s="1">
-        <v>10.700722</v>
+        <v>10.700722000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1773.030000</v>
+        <v>1773.03</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1121.640000</v>
+        <v>-1121.6400000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>38534.314964</v>
+        <v>38534.314963999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>10.703976</v>
+        <v>10.703976000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2194.470000</v>
+        <v>2194.4699999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1800.520000</v>
+        <v>-1800.52</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>38362.646614</v>
+        <v>38362.646613999997</v>
       </c>
       <c r="B6" s="1">
         <v>10.656291</v>
       </c>
       <c r="C6" s="1">
-        <v>1155.400000</v>
+        <v>1155.4000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-233.311000</v>
+        <v>-233.31100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>38373.079820</v>
+        <v>38373.079819999999</v>
       </c>
       <c r="G6" s="1">
         <v>10.659189</v>
       </c>
       <c r="H6" s="1">
-        <v>1173.140000</v>
+        <v>1173.1400000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-197.792000</v>
+        <v>-197.792</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>38383.222682</v>
@@ -1539,28 +1955,28 @@
         <v>10.662006</v>
       </c>
       <c r="M6" s="1">
-        <v>1198.170000</v>
+        <v>1198.17</v>
       </c>
       <c r="N6" s="1">
-        <v>-141.600000</v>
+        <v>-141.6</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>38393.697662</v>
+        <v>38393.697661999999</v>
       </c>
       <c r="Q6" s="1">
         <v>10.664916</v>
       </c>
       <c r="R6" s="1">
-        <v>1206.550000</v>
+        <v>1206.55</v>
       </c>
       <c r="S6" s="1">
-        <v>-123.009000</v>
+        <v>-123.009</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>38404.274352</v>
@@ -1569,240 +1985,240 @@
         <v>10.667854</v>
       </c>
       <c r="W6" s="1">
-        <v>1215.120000</v>
+        <v>1215.1199999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-105.086000</v>
+        <v>-105.086</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>38414.740929</v>
       </c>
       <c r="AA6" s="1">
-        <v>10.670761</v>
+        <v>10.670761000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1224.220000</v>
+        <v>1224.22</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.929200</v>
+        <v>-89.929199999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>38425.599379</v>
+        <v>38425.599378999999</v>
       </c>
       <c r="AF6" s="1">
         <v>10.673778</v>
       </c>
       <c r="AG6" s="1">
-        <v>1229.590000</v>
+        <v>1229.5899999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.017200</v>
+        <v>-86.017200000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>38436.083781</v>
+        <v>38436.083781000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>10.676690</v>
+        <v>10.676690000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.723500</v>
+        <v>-89.723500000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>38446.711558</v>
+        <v>38446.711558000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>10.679642</v>
+        <v>10.679641999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1245.570000</v>
+        <v>1245.57</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.829000</v>
+        <v>-101.82899999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>38457.511960</v>
+        <v>38457.511960000003</v>
       </c>
       <c r="AU6" s="1">
         <v>10.682642</v>
       </c>
       <c r="AV6" s="1">
-        <v>1255.670000</v>
+        <v>1255.67</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.291000</v>
+        <v>-121.291</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>38468.669947</v>
+        <v>38468.669947000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>10.685742</v>
+        <v>10.685741999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1264.120000</v>
+        <v>1264.1199999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.923000</v>
+        <v>-138.923</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>38479.621117</v>
+        <v>38479.621117000002</v>
       </c>
       <c r="BE6" s="1">
         <v>10.688784</v>
       </c>
       <c r="BF6" s="1">
-        <v>1304.080000</v>
+        <v>1304.08</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.657000</v>
+        <v>-221.65700000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>38490.727036</v>
+        <v>38490.727035999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>10.691869</v>
+        <v>10.691869000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1373.440000</v>
+        <v>1373.44</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.007000</v>
+        <v>-360.00700000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>38501.898462</v>
+        <v>38501.898461999997</v>
       </c>
       <c r="BO6" s="1">
         <v>10.694972</v>
       </c>
       <c r="BP6" s="1">
-        <v>1487.570000</v>
+        <v>1487.57</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-586.208000</v>
+        <v>-586.20799999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>38512.282176</v>
+        <v>38512.282176000001</v>
       </c>
       <c r="BT6" s="1">
         <v>10.697856</v>
       </c>
       <c r="BU6" s="1">
-        <v>1619.470000</v>
+        <v>1619.47</v>
       </c>
       <c r="BV6" s="1">
-        <v>-842.008000</v>
+        <v>-842.00800000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>38523.057762</v>
+        <v>38523.057761999997</v>
       </c>
       <c r="BY6" s="1">
         <v>10.700849</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1773.010000</v>
+        <v>1773.01</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1121.760000</v>
+        <v>-1121.76</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>38534.833315</v>
+        <v>38534.833315000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>10.704120</v>
+        <v>10.70412</v>
       </c>
       <c r="CE6" s="1">
-        <v>2196.020000</v>
+        <v>2196.02</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1802.210000</v>
+        <v>-1802.21</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>38363.328650</v>
+        <v>38363.328650000003</v>
       </c>
       <c r="B7" s="1">
-        <v>10.656480</v>
+        <v>10.65648</v>
       </c>
       <c r="C7" s="1">
-        <v>1154.970000</v>
+        <v>1154.97</v>
       </c>
       <c r="D7" s="1">
-        <v>-233.745000</v>
+        <v>-233.745</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>38373.426664</v>
+        <v>38373.426663999999</v>
       </c>
       <c r="G7" s="1">
-        <v>10.659285</v>
+        <v>10.659285000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1173.300000</v>
+        <v>1173.3</v>
       </c>
       <c r="I7" s="1">
-        <v>-197.651000</v>
+        <v>-197.65100000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>38383.568858</v>
+        <v>38383.568857999999</v>
       </c>
       <c r="L7" s="1">
-        <v>10.662102</v>
+        <v>10.662102000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1198.140000</v>
+        <v>1198.1400000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-141.878000</v>
+        <v>-141.87799999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>38394.045371</v>
@@ -1811,240 +2227,240 @@
         <v>10.665013</v>
       </c>
       <c r="R7" s="1">
-        <v>1206.530000</v>
+        <v>1206.53</v>
       </c>
       <c r="S7" s="1">
-        <v>-122.956000</v>
+        <v>-122.956</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>38404.929566</v>
+        <v>38404.929565999999</v>
       </c>
       <c r="V7" s="1">
-        <v>10.668036</v>
+        <v>10.668036000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1215.120000</v>
+        <v>1215.1199999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-104.903000</v>
+        <v>-104.90300000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>38415.398128</v>
+        <v>38415.398128000001</v>
       </c>
       <c r="AA7" s="1">
         <v>10.670944</v>
       </c>
       <c r="AB7" s="1">
-        <v>1224.110000</v>
+        <v>1224.1099999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.875400</v>
+        <v>-89.875399999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>38425.973827</v>
+        <v>38425.973827000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>10.673882</v>
+        <v>10.673882000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1229.570000</v>
+        <v>1229.57</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.017600</v>
+        <v>-86.017600000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>38436.457389</v>
+        <v>38436.457389000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>10.676794</v>
+        <v>10.676793999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.708300</v>
+        <v>-89.708299999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>38447.101943</v>
+        <v>38447.101943000001</v>
       </c>
       <c r="AP7" s="1">
         <v>10.679751</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1245.580000</v>
+        <v>1245.58</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.797000</v>
+        <v>-101.797</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>38457.881959</v>
+        <v>38457.881958999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>10.682745</v>
+        <v>10.682745000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1255.640000</v>
+        <v>1255.6400000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.318000</v>
+        <v>-121.318</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>38469.027593</v>
+        <v>38469.027592999999</v>
       </c>
       <c r="AZ7" s="1">
         <v>10.685841</v>
       </c>
       <c r="BA7" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.927000</v>
+        <v>-138.92699999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>38480.039773</v>
+        <v>38480.039772999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>10.688900</v>
+        <v>10.6889</v>
       </c>
       <c r="BF7" s="1">
-        <v>1304.100000</v>
+        <v>1304.0999999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.700000</v>
+        <v>-221.7</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>38491.503275</v>
+        <v>38491.503275000003</v>
       </c>
       <c r="BJ7" s="1">
-        <v>10.692084</v>
+        <v>10.692083999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1373.460000</v>
+        <v>1373.46</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.047000</v>
+        <v>-360.04700000000003</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>38502.298205</v>
+        <v>38502.298204999999</v>
       </c>
       <c r="BO7" s="1">
         <v>10.695083</v>
       </c>
       <c r="BP7" s="1">
-        <v>1487.590000</v>
+        <v>1487.59</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-586.213000</v>
+        <v>-586.21299999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>38512.695867</v>
+        <v>38512.695867000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>10.697971</v>
+        <v>10.697971000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1619.560000</v>
+        <v>1619.56</v>
       </c>
       <c r="BV7" s="1">
-        <v>-842.019000</v>
+        <v>-842.01900000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>38523.504658</v>
+        <v>38523.504657999998</v>
       </c>
       <c r="BY7" s="1">
         <v>10.700974</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1773.100000</v>
+        <v>1773.1</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1121.690000</v>
+        <v>-1121.69</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>38535.352626</v>
       </c>
       <c r="CD7" s="1">
-        <v>10.704265</v>
+        <v>10.704264999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2194.890000</v>
+        <v>2194.89</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1801.900000</v>
+        <v>-1801.9</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>38363.669860</v>
+        <v>38363.669860000002</v>
       </c>
       <c r="B8" s="1">
         <v>10.656575</v>
       </c>
       <c r="C8" s="1">
-        <v>1155.140000</v>
+        <v>1155.1400000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-233.225000</v>
+        <v>-233.22499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>38373.768934</v>
       </c>
       <c r="G8" s="1">
-        <v>10.659380</v>
+        <v>10.659380000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1172.750000</v>
+        <v>1172.75</v>
       </c>
       <c r="I8" s="1">
-        <v>-197.770000</v>
+        <v>-197.77</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>38383.914073</v>
@@ -2053,178 +2469,178 @@
         <v>10.662198</v>
       </c>
       <c r="M8" s="1">
-        <v>1198.100000</v>
+        <v>1198.0999999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-142.013000</v>
+        <v>-142.01300000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>38394.700571</v>
+        <v>38394.700571000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>10.665195</v>
+        <v>10.665195000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1206.610000</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-122.897000</v>
+        <v>-122.89700000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>38405.306061</v>
+        <v>38405.306061000003</v>
       </c>
       <c r="V8" s="1">
         <v>10.668141</v>
       </c>
       <c r="W8" s="1">
-        <v>1215.120000</v>
+        <v>1215.1199999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-105.054000</v>
+        <v>-105.054</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>38415.784058</v>
+        <v>38415.784057999997</v>
       </c>
       <c r="AA8" s="1">
         <v>10.671051</v>
       </c>
       <c r="AB8" s="1">
-        <v>1224.130000</v>
+        <v>1224.1300000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.916600</v>
+        <v>-89.916600000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>38426.320033</v>
+        <v>38426.320033000004</v>
       </c>
       <c r="AF8" s="1">
         <v>10.673978</v>
       </c>
       <c r="AG8" s="1">
-        <v>1229.590000</v>
+        <v>1229.5899999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.001800</v>
+        <v>-86.001800000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>38436.805459</v>
+        <v>38436.805459000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>10.676890</v>
+        <v>10.67689</v>
       </c>
       <c r="AL8" s="1">
-        <v>1237.330000</v>
+        <v>1237.33</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.717600</v>
+        <v>-89.717600000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>38447.461013</v>
       </c>
       <c r="AP8" s="1">
-        <v>10.679850</v>
+        <v>10.67985</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1245.570000</v>
+        <v>1245.57</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.829000</v>
+        <v>-101.82899999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>38458.297607</v>
       </c>
       <c r="AU8" s="1">
-        <v>10.682860</v>
+        <v>10.68286</v>
       </c>
       <c r="AV8" s="1">
-        <v>1255.650000</v>
+        <v>1255.6500000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.280000</v>
+        <v>-121.28</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>38469.456105</v>
+        <v>38469.456104999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>10.685960</v>
+        <v>10.68596</v>
       </c>
       <c r="BA8" s="1">
-        <v>1264.120000</v>
+        <v>1264.1199999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.930000</v>
+        <v>-138.93</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>38480.343291</v>
+        <v>38480.343290999997</v>
       </c>
       <c r="BE8" s="1">
         <v>10.688984</v>
       </c>
       <c r="BF8" s="1">
-        <v>1304.080000</v>
+        <v>1304.08</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.696000</v>
+        <v>-221.696</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>38491.877259</v>
+        <v>38491.877259000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>10.692188</v>
       </c>
       <c r="BK8" s="1">
-        <v>1373.410000</v>
+        <v>1373.41</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.039000</v>
+        <v>-360.03899999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>38502.719345</v>
+        <v>38502.719344999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>10.695200</v>
+        <v>10.6952</v>
       </c>
       <c r="BP8" s="1">
-        <v>1487.640000</v>
+        <v>1487.64</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-586.218000</v>
+        <v>-586.21799999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>38513.108042</v>
@@ -2233,13 +2649,13 @@
         <v>10.698086</v>
       </c>
       <c r="BU8" s="1">
-        <v>1619.530000</v>
+        <v>1619.53</v>
       </c>
       <c r="BV8" s="1">
-        <v>-842.061000</v>
+        <v>-842.06100000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>38523.927249</v>
@@ -2248,13 +2664,13 @@
         <v>10.701091</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1772.960000</v>
+        <v>1772.96</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1121.620000</v>
+        <v>-1121.6199999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>38535.906657</v>
@@ -2263,559 +2679,559 @@
         <v>10.704419</v>
       </c>
       <c r="CE8" s="1">
-        <v>2194.760000</v>
+        <v>2194.7600000000002</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1800.960000</v>
+        <v>-1800.96</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>38364.013092</v>
+        <v>38364.013092000001</v>
       </c>
       <c r="B9" s="1">
-        <v>10.656670</v>
+        <v>10.65667</v>
       </c>
       <c r="C9" s="1">
-        <v>1155.290000</v>
+        <v>1155.29</v>
       </c>
       <c r="D9" s="1">
-        <v>-233.613000</v>
+        <v>-233.613</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>38374.422134</v>
       </c>
       <c r="G9" s="1">
-        <v>10.659562</v>
+        <v>10.659561999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1172.840000</v>
+        <v>1172.8399999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-197.902000</v>
+        <v>-197.90199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>38384.564825</v>
+        <v>38384.564825000001</v>
       </c>
       <c r="L9" s="1">
         <v>10.662379</v>
       </c>
       <c r="M9" s="1">
-        <v>1198.580000</v>
+        <v>1198.58</v>
       </c>
       <c r="N9" s="1">
-        <v>-141.791000</v>
+        <v>-141.791</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>38395.090429</v>
+        <v>38395.090429000003</v>
       </c>
       <c r="Q9" s="1">
         <v>10.665303</v>
       </c>
       <c r="R9" s="1">
-        <v>1206.620000</v>
+        <v>1206.6199999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-122.971000</v>
+        <v>-122.971</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>38405.648270</v>
+        <v>38405.648269999998</v>
       </c>
       <c r="V9" s="1">
         <v>10.668236</v>
       </c>
       <c r="W9" s="1">
-        <v>1215.040000</v>
+        <v>1215.04</v>
       </c>
       <c r="X9" s="1">
-        <v>-105.061000</v>
+        <v>-105.06100000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>38416.132737</v>
       </c>
       <c r="AA9" s="1">
-        <v>10.671148</v>
+        <v>10.671148000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1223.980000</v>
+        <v>1223.98</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.934000</v>
+        <v>-89.933999999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>38426.663266</v>
+        <v>38426.663266000003</v>
       </c>
       <c r="AF9" s="1">
         <v>10.674073</v>
       </c>
       <c r="AG9" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.013300</v>
+        <v>-86.013300000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>38437.154643</v>
+        <v>38437.154643000002</v>
       </c>
       <c r="AK9" s="1">
         <v>10.676987</v>
       </c>
       <c r="AL9" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.717100</v>
+        <v>-89.717100000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>38447.879142</v>
+        <v>38447.879141999998</v>
       </c>
       <c r="AP9" s="1">
         <v>10.679966</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1245.600000</v>
+        <v>1245.5999999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.819000</v>
+        <v>-101.819</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>38458.608629</v>
+        <v>38458.608629000002</v>
       </c>
       <c r="AU9" s="1">
         <v>10.682947</v>
       </c>
       <c r="AV9" s="1">
-        <v>1255.670000</v>
+        <v>1255.67</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.290000</v>
+        <v>-121.29</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>38469.742793</v>
+        <v>38469.742792999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>10.686040</v>
+        <v>10.68604</v>
       </c>
       <c r="BA9" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.928000</v>
+        <v>-138.928</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>38480.707355</v>
+        <v>38480.707354999999</v>
       </c>
       <c r="BE9" s="1">
         <v>10.689085</v>
       </c>
       <c r="BF9" s="1">
-        <v>1304.120000</v>
+        <v>1304.1199999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.667000</v>
+        <v>-221.667</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>38492.255210</v>
+        <v>38492.255210000003</v>
       </c>
       <c r="BJ9" s="1">
-        <v>10.692293</v>
+        <v>10.692292999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1373.460000</v>
+        <v>1373.46</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.012000</v>
+        <v>-360.012</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>38503.114652</v>
+        <v>38503.114651999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>10.695310</v>
+        <v>10.695309999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1487.630000</v>
+        <v>1487.63</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-586.217000</v>
+        <v>-586.21699999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>38513.524158</v>
       </c>
       <c r="BT9" s="1">
-        <v>10.698201</v>
+        <v>10.698200999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1619.500000</v>
+        <v>1619.5</v>
       </c>
       <c r="BV9" s="1">
-        <v>-842.061000</v>
+        <v>-842.06100000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>38524.358806</v>
+        <v>38524.358805999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>10.701211</v>
+        <v>10.701211000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1773.040000</v>
+        <v>1773.04</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1121.720000</v>
+        <v>-1121.72</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>38536.434896</v>
+        <v>38536.434895999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>10.704565</v>
+        <v>10.704565000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2196.210000</v>
+        <v>2196.21</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1802.420000</v>
+        <v>-1802.42</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>38364.663347</v>
+        <v>38364.663347000002</v>
       </c>
       <c r="B10" s="1">
         <v>10.656851</v>
       </c>
       <c r="C10" s="1">
-        <v>1155.100000</v>
+        <v>1155.0999999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-233.619000</v>
+        <v>-233.619</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>38374.803061</v>
+        <v>38374.803060999999</v>
       </c>
       <c r="G10" s="1">
         <v>10.659668</v>
       </c>
       <c r="H10" s="1">
-        <v>1172.770000</v>
+        <v>1172.77</v>
       </c>
       <c r="I10" s="1">
-        <v>-197.964000</v>
+        <v>-197.964</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>38384.951736</v>
+        <v>38384.951736000003</v>
       </c>
       <c r="L10" s="1">
         <v>10.662487</v>
       </c>
       <c r="M10" s="1">
-        <v>1198.340000</v>
+        <v>1198.3399999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-141.957000</v>
+        <v>-141.95699999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>38395.439151</v>
+        <v>38395.439150999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>10.665400</v>
+        <v>10.6654</v>
       </c>
       <c r="R10" s="1">
-        <v>1206.620000</v>
+        <v>1206.6199999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-122.988000</v>
+        <v>-122.988</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>38405.992524</v>
+        <v>38405.992524000001</v>
       </c>
       <c r="V10" s="1">
         <v>10.668331</v>
       </c>
       <c r="W10" s="1">
-        <v>1215.140000</v>
+        <v>1215.1400000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-105.041000</v>
+        <v>-105.041</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>38416.481921</v>
+        <v>38416.481920999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>10.671245</v>
+        <v>10.671245000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1224.080000</v>
+        <v>1224.08</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.145400</v>
+        <v>-90.145399999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>38427.082417</v>
+        <v>38427.082416999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>10.674190</v>
+        <v>10.674189999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.044500</v>
+        <v>-86.044499999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>38437.612452</v>
+        <v>38437.612452000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>10.677115</v>
+        <v>10.677115000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.737800</v>
+        <v>-89.737799999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>38448.183718</v>
       </c>
       <c r="AP10" s="1">
-        <v>10.680051</v>
+        <v>10.680051000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1245.570000</v>
+        <v>1245.57</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.817000</v>
+        <v>-101.81699999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>38458.972270</v>
+        <v>38458.972269999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>10.683048</v>
+        <v>10.683047999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1255.690000</v>
+        <v>1255.69</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.325000</v>
+        <v>-121.325</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>38470.102392</v>
+        <v>38470.102392000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>10.686140</v>
+        <v>10.68614</v>
       </c>
       <c r="BA10" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.922000</v>
+        <v>-138.922</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>38481.066458</v>
+        <v>38481.066458000001</v>
       </c>
       <c r="BE10" s="1">
         <v>10.689185</v>
       </c>
       <c r="BF10" s="1">
-        <v>1304.090000</v>
+        <v>1304.0899999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.700000</v>
+        <v>-221.7</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>38492.671850</v>
+        <v>38492.671849999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>10.692409</v>
       </c>
       <c r="BK10" s="1">
-        <v>1373.430000</v>
+        <v>1373.43</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.005000</v>
+        <v>-360.005</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>38503.534960</v>
+        <v>38503.534959999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>10.695426</v>
+        <v>10.695425999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1487.610000</v>
+        <v>1487.61</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-586.260000</v>
+        <v>-586.26</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>38513.939806</v>
+        <v>38513.939806000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>10.698317</v>
+        <v>10.698316999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1619.510000</v>
+        <v>1619.51</v>
       </c>
       <c r="BV10" s="1">
-        <v>-842.039000</v>
+        <v>-842.03899999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>38524.773956</v>
+        <v>38524.773955999997</v>
       </c>
       <c r="BY10" s="1">
         <v>10.701326</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1773.130000</v>
+        <v>1773.13</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1121.730000</v>
+        <v>-1121.73</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>38536.952191</v>
+        <v>38536.952190999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>10.704709</v>
+        <v>10.704708999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2197.690000</v>
+        <v>2197.69</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1800.680000</v>
+        <v>-1800.68</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>38365.037330</v>
+        <v>38365.037329999999</v>
       </c>
       <c r="B11" s="1">
         <v>10.656955</v>
       </c>
       <c r="C11" s="1">
-        <v>1155.200000</v>
+        <v>1155.2</v>
       </c>
       <c r="D11" s="1">
-        <v>-233.292000</v>
+        <v>-233.292</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>38375.148313</v>
+        <v>38375.148312999998</v>
       </c>
       <c r="G11" s="1">
         <v>10.659763</v>
       </c>
       <c r="H11" s="1">
-        <v>1172.930000</v>
+        <v>1172.93</v>
       </c>
       <c r="I11" s="1">
-        <v>-197.336000</v>
+        <v>-197.33600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>38385.295928</v>
@@ -2824,58 +3240,58 @@
         <v>10.662582</v>
       </c>
       <c r="M11" s="1">
-        <v>1198.360000</v>
+        <v>1198.3599999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-141.838000</v>
+        <v>-141.83799999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>38395.788330</v>
+        <v>38395.788330000003</v>
       </c>
       <c r="Q11" s="1">
         <v>10.665497</v>
       </c>
       <c r="R11" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="S11" s="1">
-        <v>-123.034000</v>
+        <v>-123.03400000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>38406.416107</v>
+        <v>38406.416106999997</v>
       </c>
       <c r="V11" s="1">
-        <v>10.668449</v>
+        <v>10.668449000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1215.060000</v>
+        <v>1215.06</v>
       </c>
       <c r="X11" s="1">
-        <v>-105.068000</v>
+        <v>-105.068</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>38416.895550</v>
+        <v>38416.895550000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>10.671360</v>
+        <v>10.67136</v>
       </c>
       <c r="AB11" s="1">
-        <v>1224.200000</v>
+        <v>1224.2</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.668200</v>
+        <v>-89.668199999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>38427.361136</v>
@@ -2884,330 +3300,330 @@
         <v>10.674267</v>
       </c>
       <c r="AG11" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.010100</v>
+        <v>-86.010099999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>38437.852516</v>
+        <v>38437.852515999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>10.677181</v>
+        <v>10.677180999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.724200</v>
+        <v>-89.724199999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>38448.540308</v>
+        <v>38448.540308000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>10.680150</v>
+        <v>10.680149999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1245.570000</v>
+        <v>1245.57</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.826000</v>
+        <v>-101.82599999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>38459.339702</v>
+        <v>38459.339701999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>10.683150</v>
+        <v>10.683149999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1255.670000</v>
+        <v>1255.67</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.298000</v>
+        <v>-121.298</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>38470.462985</v>
+        <v>38470.462984999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>10.686240</v>
+        <v>10.68624</v>
       </c>
       <c r="BA11" s="1">
-        <v>1264.120000</v>
+        <v>1264.1199999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.929000</v>
+        <v>-138.929</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>38481.788632</v>
+        <v>38481.788632000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>10.689386</v>
+        <v>10.689386000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1304.110000</v>
+        <v>1304.1099999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.676000</v>
+        <v>-221.67599999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>38493.030986</v>
+        <v>38493.030985999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>10.692509</v>
+        <v>10.692508999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1373.430000</v>
+        <v>1373.43</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.049000</v>
+        <v>-360.04899999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>38503.930539</v>
+        <v>38503.930539000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>10.695536</v>
+        <v>10.695536000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1487.610000</v>
+        <v>1487.61</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-586.236000</v>
+        <v>-586.23599999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>38514.356479</v>
+        <v>38514.356479000002</v>
       </c>
       <c r="BT11" s="1">
         <v>10.698432</v>
       </c>
       <c r="BU11" s="1">
-        <v>1619.540000</v>
+        <v>1619.54</v>
       </c>
       <c r="BV11" s="1">
-        <v>-842.057000</v>
+        <v>-842.05700000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>38525.190063</v>
+        <v>38525.190063000002</v>
       </c>
       <c r="BY11" s="1">
         <v>10.701442</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1773.040000</v>
+        <v>1773.04</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1121.650000</v>
+        <v>-1121.6500000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>38537.773566</v>
+        <v>38537.773566000003</v>
       </c>
       <c r="CD11" s="1">
-        <v>10.704937</v>
+        <v>10.704936999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2195.660000</v>
+        <v>2195.66</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1799.180000</v>
+        <v>-1799.18</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>38365.378113</v>
+        <v>38365.378112999999</v>
       </c>
       <c r="B12" s="1">
-        <v>10.657049</v>
+        <v>10.657049000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1155.030000</v>
+        <v>1155.03</v>
       </c>
       <c r="D12" s="1">
-        <v>-233.668000</v>
+        <v>-233.66800000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>38375.493493</v>
+        <v>38375.493493000002</v>
       </c>
       <c r="G12" s="1">
-        <v>10.659859</v>
+        <v>10.659859000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1172.840000</v>
+        <v>1172.8399999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-197.200000</v>
+        <v>-197.2</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>38385.857399</v>
       </c>
       <c r="L12" s="1">
-        <v>10.662738</v>
+        <v>10.662737999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1197.980000</v>
+        <v>1197.98</v>
       </c>
       <c r="N12" s="1">
-        <v>-141.819000</v>
+        <v>-141.81899999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>38396.204473</v>
+        <v>38396.204472999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>10.665612</v>
+        <v>10.665611999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1206.570000</v>
+        <v>1206.57</v>
       </c>
       <c r="S12" s="1">
-        <v>-123.021000</v>
+        <v>-123.021</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>38406.680941</v>
+        <v>38406.680940999999</v>
       </c>
       <c r="V12" s="1">
-        <v>10.668522</v>
+        <v>10.668521999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1214.970000</v>
+        <v>1214.97</v>
       </c>
       <c r="X12" s="1">
-        <v>-105.069000</v>
+        <v>-105.069</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>38417.195166</v>
+        <v>38417.195165999998</v>
       </c>
       <c r="AA12" s="1">
         <v>10.671443</v>
       </c>
       <c r="AB12" s="1">
-        <v>1224.110000</v>
+        <v>1224.1099999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.056100</v>
+        <v>-90.056100000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>38427.706880</v>
+        <v>38427.706879999998</v>
       </c>
       <c r="AF12" s="1">
         <v>10.674363</v>
       </c>
       <c r="AG12" s="1">
-        <v>1229.570000</v>
+        <v>1229.57</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.999300</v>
+        <v>-85.999300000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>38438.201202</v>
+        <v>38438.201201999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>10.677278</v>
+        <v>10.677277999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1237.370000</v>
+        <v>1237.3699999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.722500</v>
+        <v>-89.722499999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>38448.903875</v>
+        <v>38448.903875000004</v>
       </c>
       <c r="AP12" s="1">
         <v>10.680251</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1245.580000</v>
+        <v>1245.58</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.836000</v>
+        <v>-101.836</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>38460.069317</v>
+        <v>38460.069317000001</v>
       </c>
       <c r="AU12" s="1">
         <v>10.683353</v>
       </c>
       <c r="AV12" s="1">
-        <v>1255.670000</v>
+        <v>1255.67</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.321000</v>
+        <v>-121.321</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>38471.179702</v>
+        <v>38471.179702000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>10.686439</v>
       </c>
       <c r="BA12" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.943000</v>
+        <v>-138.94300000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>38482.148232</v>
@@ -3216,150 +3632,150 @@
         <v>10.689486</v>
       </c>
       <c r="BF12" s="1">
-        <v>1304.090000</v>
+        <v>1304.0899999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.703000</v>
+        <v>-221.703</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>38493.407954</v>
+        <v>38493.407954000002</v>
       </c>
       <c r="BJ12" s="1">
         <v>10.692613</v>
       </c>
       <c r="BK12" s="1">
-        <v>1373.440000</v>
+        <v>1373.44</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.012000</v>
+        <v>-360.012</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>38504.351643</v>
+        <v>38504.351643000002</v>
       </c>
       <c r="BO12" s="1">
         <v>10.695653</v>
       </c>
       <c r="BP12" s="1">
-        <v>1487.650000</v>
+        <v>1487.65</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-586.191000</v>
+        <v>-586.19100000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>38515.100610</v>
+        <v>38515.100610000001</v>
       </c>
       <c r="BT12" s="1">
         <v>10.698639</v>
       </c>
       <c r="BU12" s="1">
-        <v>1619.600000</v>
+        <v>1619.6</v>
       </c>
       <c r="BV12" s="1">
-        <v>-842.078000</v>
+        <v>-842.07799999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>38526.002548</v>
+        <v>38526.002547999997</v>
       </c>
       <c r="BY12" s="1">
         <v>10.701667</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1773.180000</v>
+        <v>1773.18</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1121.690000</v>
+        <v>-1121.69</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>38538.024046</v>
+        <v>38538.024045999999</v>
       </c>
       <c r="CD12" s="1">
         <v>10.705007</v>
       </c>
       <c r="CE12" s="1">
-        <v>2194.540000</v>
+        <v>2194.54</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1802.180000</v>
+        <v>-1802.18</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>38365.722802</v>
+        <v>38365.722801999997</v>
       </c>
       <c r="B13" s="1">
         <v>10.657145</v>
       </c>
       <c r="C13" s="1">
-        <v>1155.320000</v>
+        <v>1155.32</v>
       </c>
       <c r="D13" s="1">
-        <v>-233.501000</v>
+        <v>-233.501</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>38375.913006</v>
+        <v>38375.913006000002</v>
       </c>
       <c r="G13" s="1">
         <v>10.659976</v>
       </c>
       <c r="H13" s="1">
-        <v>1172.750000</v>
+        <v>1172.75</v>
       </c>
       <c r="I13" s="1">
-        <v>-198.177000</v>
+        <v>-198.17699999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>38385.988839</v>
+        <v>38385.988838999998</v>
       </c>
       <c r="L13" s="1">
         <v>10.662775</v>
       </c>
       <c r="M13" s="1">
-        <v>1198.280000</v>
+        <v>1198.28</v>
       </c>
       <c r="N13" s="1">
-        <v>-141.969000</v>
+        <v>-141.96899999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>38396.484682</v>
+        <v>38396.484682000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>10.665690</v>
+        <v>10.66569</v>
       </c>
       <c r="R13" s="1">
-        <v>1206.560000</v>
+        <v>1206.56</v>
       </c>
       <c r="S13" s="1">
-        <v>-123.004000</v>
+        <v>-123.004</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>38407.029659</v>
@@ -3368,270 +3784,270 @@
         <v>10.668619</v>
       </c>
       <c r="W13" s="1">
-        <v>1215.040000</v>
+        <v>1215.04</v>
       </c>
       <c r="X13" s="1">
-        <v>-105.004000</v>
+        <v>-105.004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>38417.545309</v>
+        <v>38417.545309000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>10.671540</v>
+        <v>10.67154</v>
       </c>
       <c r="AB13" s="1">
-        <v>1223.870000</v>
+        <v>1223.8699999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.922000</v>
+        <v>-89.921999999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>38428.050612</v>
+        <v>38428.050611999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>10.674459</v>
+        <v>10.674459000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.003300</v>
+        <v>-86.003299999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>38438.899105</v>
+        <v>38438.899104999997</v>
       </c>
       <c r="AK13" s="1">
         <v>10.677472</v>
       </c>
       <c r="AL13" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.716500</v>
+        <v>-89.716499999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>38449.623574</v>
+        <v>38449.623573999997</v>
       </c>
       <c r="AP13" s="1">
         <v>10.680451</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1245.590000</v>
+        <v>1245.5899999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.823000</v>
+        <v>-101.82299999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>38460.460200</v>
+        <v>38460.460200000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>10.683461</v>
+        <v>10.683460999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1255.670000</v>
+        <v>1255.67</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.295000</v>
+        <v>-121.295</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>38471.538318</v>
+        <v>38471.538317999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>10.686538</v>
+        <v>10.686538000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.935000</v>
+        <v>-138.935</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>38482.509354</v>
+        <v>38482.509354000002</v>
       </c>
       <c r="BE13" s="1">
         <v>10.689586</v>
       </c>
       <c r="BF13" s="1">
-        <v>1304.110000</v>
+        <v>1304.1099999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.687000</v>
+        <v>-221.68700000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>38494.091427</v>
+        <v>38494.091426999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>10.692803</v>
       </c>
       <c r="BK13" s="1">
-        <v>1373.460000</v>
+        <v>1373.46</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.036000</v>
+        <v>-360.036</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>38505.066874</v>
+        <v>38505.066873999996</v>
       </c>
       <c r="BO13" s="1">
         <v>10.695852</v>
       </c>
       <c r="BP13" s="1">
-        <v>1487.650000</v>
+        <v>1487.65</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-586.219000</v>
+        <v>-586.21900000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>38515.220477</v>
+        <v>38515.220477000003</v>
       </c>
       <c r="BT13" s="1">
         <v>10.698672</v>
       </c>
       <c r="BU13" s="1">
-        <v>1619.590000</v>
+        <v>1619.59</v>
       </c>
       <c r="BV13" s="1">
-        <v>-842.067000</v>
+        <v>-842.06700000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>38526.478174</v>
+        <v>38526.478174000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>10.701799</v>
+        <v>10.701798999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1773.070000</v>
+        <v>1773.07</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1121.510000</v>
+        <v>-1121.51</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>38538.554306</v>
+        <v>38538.554305999998</v>
       </c>
       <c r="CD13" s="1">
         <v>10.705154</v>
       </c>
       <c r="CE13" s="1">
-        <v>2197.220000</v>
+        <v>2197.2199999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1800.950000</v>
+        <v>-1800.95</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>38366.153825</v>
+        <v>38366.153825000001</v>
       </c>
       <c r="B14" s="1">
-        <v>10.657265</v>
+        <v>10.657265000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1155.190000</v>
+        <v>1155.19</v>
       </c>
       <c r="D14" s="1">
-        <v>-233.573000</v>
+        <v>-233.57300000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>38376.180481</v>
+        <v>38376.180481000003</v>
       </c>
       <c r="G14" s="1">
-        <v>10.660050</v>
+        <v>10.66005</v>
       </c>
       <c r="H14" s="1">
-        <v>1172.610000</v>
+        <v>1172.6099999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-197.917000</v>
+        <v>-197.917</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>38386.335544</v>
+        <v>38386.335544000001</v>
       </c>
       <c r="L14" s="1">
-        <v>10.662871</v>
+        <v>10.662871000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1198.440000</v>
+        <v>1198.44</v>
       </c>
       <c r="N14" s="1">
-        <v>-141.805000</v>
+        <v>-141.80500000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>38396.834361</v>
+        <v>38396.834361000001</v>
       </c>
       <c r="Q14" s="1">
         <v>10.665787</v>
       </c>
       <c r="R14" s="1">
-        <v>1206.620000</v>
+        <v>1206.6199999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-122.955000</v>
+        <v>-122.955</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>38407.372364</v>
+        <v>38407.372364000003</v>
       </c>
       <c r="V14" s="1">
-        <v>10.668715</v>
+        <v>10.668715000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1215.070000</v>
+        <v>1215.07</v>
       </c>
       <c r="X14" s="1">
-        <v>-105.048000</v>
+        <v>-105.048</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>38417.894989</v>
@@ -3640,497 +4056,497 @@
         <v>10.671637</v>
       </c>
       <c r="AB14" s="1">
-        <v>1224.140000</v>
+        <v>1224.1400000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.891000</v>
+        <v>-89.891000000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>38428.726624</v>
+        <v>38428.726624000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>10.674646</v>
+        <v>10.674645999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1229.560000</v>
+        <v>1229.56</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.029500</v>
+        <v>-86.029499999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>38439.247300</v>
+        <v>38439.247300000003</v>
       </c>
       <c r="AK14" s="1">
         <v>10.677569</v>
       </c>
       <c r="AL14" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.728000</v>
+        <v>-89.727999999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>38449.981186</v>
+        <v>38449.981185999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>10.680550</v>
+        <v>10.68055</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1245.590000</v>
+        <v>1245.5899999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.789000</v>
+        <v>-101.789</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>38460.824725</v>
+        <v>38460.824724999999</v>
       </c>
       <c r="AU14" s="1">
         <v>10.683562</v>
       </c>
       <c r="AV14" s="1">
-        <v>1255.670000</v>
+        <v>1255.67</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.323000</v>
+        <v>-121.32299999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>38471.897415</v>
+        <v>38471.897414999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>10.686638</v>
       </c>
       <c r="BA14" s="1">
-        <v>1264.110000</v>
+        <v>1264.1099999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.943000</v>
+        <v>-138.94300000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>38483.179911</v>
+        <v>38483.179910999999</v>
       </c>
       <c r="BE14" s="1">
         <v>10.689772</v>
       </c>
       <c r="BF14" s="1">
-        <v>1304.130000</v>
+        <v>1304.1300000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.682000</v>
+        <v>-221.68199999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>38494.532872</v>
+        <v>38494.532872000003</v>
       </c>
       <c r="BJ14" s="1">
         <v>10.692926</v>
       </c>
       <c r="BK14" s="1">
-        <v>1373.440000</v>
+        <v>1373.44</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.037000</v>
+        <v>-360.03699999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>38505.188395</v>
+        <v>38505.188394999997</v>
       </c>
       <c r="BO14" s="1">
         <v>10.695886</v>
       </c>
       <c r="BP14" s="1">
-        <v>1487.580000</v>
+        <v>1487.58</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-586.228000</v>
+        <v>-586.22799999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>38515.633741</v>
+        <v>38515.633740999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>10.698787</v>
+        <v>10.698786999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1619.550000</v>
+        <v>1619.55</v>
       </c>
       <c r="BV14" s="1">
-        <v>-842.119000</v>
+        <v>-842.11900000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>38526.922092</v>
+        <v>38526.922092000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>10.701923</v>
+        <v>10.701923000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1773.050000</v>
+        <v>1773.05</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1121.730000</v>
+        <v>-1121.73</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>38539.095932</v>
+        <v>38539.095931999997</v>
       </c>
       <c r="CD14" s="1">
         <v>10.705304</v>
       </c>
       <c r="CE14" s="1">
-        <v>2194.720000</v>
+        <v>2194.7199999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1800.430000</v>
+        <v>-1800.43</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>38366.422693</v>
       </c>
       <c r="B15" s="1">
-        <v>10.657340</v>
+        <v>10.65734</v>
       </c>
       <c r="C15" s="1">
-        <v>1155.200000</v>
+        <v>1155.2</v>
       </c>
       <c r="D15" s="1">
-        <v>-233.585000</v>
+        <v>-233.58500000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>38376.524180</v>
+        <v>38376.52418</v>
       </c>
       <c r="G15" s="1">
-        <v>10.660146</v>
+        <v>10.660145999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1172.730000</v>
+        <v>1172.73</v>
       </c>
       <c r="I15" s="1">
-        <v>-197.657000</v>
+        <v>-197.65700000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>38386.679271</v>
+        <v>38386.679271000001</v>
       </c>
       <c r="L15" s="1">
-        <v>10.662966</v>
+        <v>10.662966000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1198.250000</v>
+        <v>1198.25</v>
       </c>
       <c r="N15" s="1">
-        <v>-141.869000</v>
+        <v>-141.869</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>38397.181592</v>
+        <v>38397.181592000001</v>
       </c>
       <c r="Q15" s="1">
         <v>10.665884</v>
       </c>
       <c r="R15" s="1">
-        <v>1206.690000</v>
+        <v>1206.69</v>
       </c>
       <c r="S15" s="1">
-        <v>-123.063000</v>
+        <v>-123.063</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>38408.054859</v>
+        <v>38408.054859000003</v>
       </c>
       <c r="V15" s="1">
-        <v>10.668904</v>
+        <v>10.668903999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1215.100000</v>
+        <v>1215.0999999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-104.991000</v>
+        <v>-104.991</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>38418.592861</v>
+        <v>38418.592860999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>10.671831</v>
+        <v>10.671830999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1224.100000</v>
+        <v>1224.0999999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.833900</v>
+        <v>-89.8339</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>38429.082751</v>
+        <v>38429.082751000002</v>
       </c>
       <c r="AF15" s="1">
         <v>10.674745</v>
       </c>
       <c r="AG15" s="1">
-        <v>1229.570000</v>
+        <v>1229.57</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.974900</v>
+        <v>-85.974900000000005</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>38439.596449</v>
+        <v>38439.596448999997</v>
       </c>
       <c r="AK15" s="1">
         <v>10.677666</v>
       </c>
       <c r="AL15" s="1">
-        <v>1237.370000</v>
+        <v>1237.3699999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.745200</v>
+        <v>-89.745199999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>38450.343267</v>
+        <v>38450.343266999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>10.680651</v>
+        <v>10.680650999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1245.560000</v>
+        <v>1245.56</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.805000</v>
+        <v>-101.80500000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>38461.500277</v>
+        <v>38461.500276999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>10.683750</v>
+        <v>10.68375</v>
       </c>
       <c r="AV15" s="1">
-        <v>1255.650000</v>
+        <v>1255.6500000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.296000</v>
+        <v>-121.29600000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>38472.555141</v>
+        <v>38472.555140999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>10.686821</v>
       </c>
       <c r="BA15" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.927000</v>
+        <v>-138.92699999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>38483.625318</v>
+        <v>38483.625317999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>10.689896</v>
+        <v>10.689895999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1304.120000</v>
+        <v>1304.1199999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.703000</v>
+        <v>-221.703</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>38494.907352</v>
+        <v>38494.907352000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>10.693030</v>
+        <v>10.69303</v>
       </c>
       <c r="BK15" s="1">
-        <v>1373.460000</v>
+        <v>1373.46</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.033000</v>
+        <v>-360.03300000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>38505.598090</v>
+        <v>38505.59809</v>
       </c>
       <c r="BO15" s="1">
         <v>10.695999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1487.650000</v>
+        <v>1487.65</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-586.225000</v>
+        <v>-586.22500000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>38516.063180</v>
+        <v>38516.063179999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>10.698906</v>
+        <v>10.698905999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1619.500000</v>
+        <v>1619.5</v>
       </c>
       <c r="BV15" s="1">
-        <v>-842.157000</v>
+        <v>-842.15700000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>38527.351660</v>
+        <v>38527.35166</v>
       </c>
       <c r="BY15" s="1">
         <v>10.702042</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1773.170000</v>
+        <v>1773.17</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1121.790000</v>
+        <v>-1121.79</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>38539.634588</v>
+        <v>38539.634588000001</v>
       </c>
       <c r="CD15" s="1">
         <v>10.705454</v>
       </c>
       <c r="CE15" s="1">
-        <v>2196.450000</v>
+        <v>2196.4499999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1801.800000</v>
+        <v>-1801.8</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>38366.763650</v>
+        <v>38366.763650000001</v>
       </c>
       <c r="B16" s="1">
         <v>10.657434</v>
       </c>
       <c r="C16" s="1">
-        <v>1154.920000</v>
+        <v>1154.92</v>
       </c>
       <c r="D16" s="1">
-        <v>-233.183000</v>
+        <v>-233.18299999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>38376.871379</v>
+        <v>38376.871378999997</v>
       </c>
       <c r="G16" s="1">
         <v>10.660242</v>
       </c>
       <c r="H16" s="1">
-        <v>1173.420000</v>
+        <v>1173.42</v>
       </c>
       <c r="I16" s="1">
-        <v>-197.571000</v>
+        <v>-197.571</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>38387.367255</v>
+        <v>38387.367254999997</v>
       </c>
       <c r="L16" s="1">
-        <v>10.663158</v>
+        <v>10.663157999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1198.420000</v>
+        <v>1198.42</v>
       </c>
       <c r="N16" s="1">
-        <v>-141.644000</v>
+        <v>-141.64400000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>38397.877675</v>
+        <v>38397.877675000003</v>
       </c>
       <c r="Q16" s="1">
         <v>10.666077</v>
       </c>
       <c r="R16" s="1">
-        <v>1206.610000</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-123.116000</v>
+        <v>-123.116</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>38408.402554</v>
@@ -4139,360 +4555,360 @@
         <v>10.669001</v>
       </c>
       <c r="W16" s="1">
-        <v>1214.990000</v>
+        <v>1214.99</v>
       </c>
       <c r="X16" s="1">
-        <v>-104.960000</v>
+        <v>-104.96</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>38418.938572</v>
+        <v>38418.938571999999</v>
       </c>
       <c r="AA16" s="1">
         <v>10.671927</v>
       </c>
       <c r="AB16" s="1">
-        <v>1224.210000</v>
+        <v>1224.21</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.811000</v>
+        <v>-89.811000000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>38429.423501</v>
+        <v>38429.423500999997</v>
       </c>
       <c r="AF16" s="1">
-        <v>10.674840</v>
+        <v>10.67484</v>
       </c>
       <c r="AG16" s="1">
-        <v>1229.600000</v>
+        <v>1229.5999999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.030100</v>
+        <v>-86.030100000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>38440.255135</v>
+        <v>38440.255134999999</v>
       </c>
       <c r="AK16" s="1">
         <v>10.677849</v>
       </c>
       <c r="AL16" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.709800</v>
+        <v>-89.709800000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>38451.013361</v>
+        <v>38451.013360999998</v>
       </c>
       <c r="AP16" s="1">
         <v>10.680837</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1245.560000</v>
+        <v>1245.56</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.804000</v>
+        <v>-101.804</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>38461.951139</v>
+        <v>38461.951138999997</v>
       </c>
       <c r="AU16" s="1">
         <v>10.683875</v>
       </c>
       <c r="AV16" s="1">
-        <v>1255.650000</v>
+        <v>1255.6500000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.336000</v>
+        <v>-121.336</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>38473.006965</v>
       </c>
       <c r="AZ16" s="1">
-        <v>10.686946</v>
+        <v>10.686946000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1264.120000</v>
+        <v>1264.1199999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.933000</v>
+        <v>-138.93299999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>38483.986604</v>
+        <v>38483.986603999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>10.689996</v>
+        <v>10.689996000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1304.120000</v>
+        <v>1304.1199999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.689000</v>
+        <v>-221.68899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>38495.282326</v>
       </c>
       <c r="BJ16" s="1">
-        <v>10.693134</v>
+        <v>10.693134000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1373.450000</v>
+        <v>1373.45</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.070000</v>
+        <v>-360.07</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>38505.992936</v>
+        <v>38505.992936000002</v>
       </c>
       <c r="BO16" s="1">
         <v>10.696109</v>
       </c>
       <c r="BP16" s="1">
-        <v>1487.620000</v>
+        <v>1487.62</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-586.238000</v>
+        <v>-586.23800000000006</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>38516.491227</v>
+        <v>38516.491226999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>10.699025</v>
+        <v>10.699025000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1619.470000</v>
+        <v>1619.47</v>
       </c>
       <c r="BV16" s="1">
-        <v>-842.123000</v>
+        <v>-842.12300000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>38527.773756</v>
+        <v>38527.773756000002</v>
       </c>
       <c r="BY16" s="1">
         <v>10.702159</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1772.990000</v>
+        <v>1772.99</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1121.760000</v>
+        <v>-1121.76</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>38540.174734</v>
       </c>
       <c r="CD16" s="1">
-        <v>10.705604</v>
+        <v>10.705603999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2196.110000</v>
+        <v>2196.11</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1799.760000</v>
+        <v>-1799.76</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>38367.101220</v>
+        <v>38367.101219999997</v>
       </c>
       <c r="B17" s="1">
-        <v>10.657528</v>
+        <v>10.657527999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1155.080000</v>
+        <v>1155.08</v>
       </c>
       <c r="D17" s="1">
-        <v>-233.388000</v>
+        <v>-233.38800000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>38377.562840</v>
+        <v>38377.562839999999</v>
       </c>
       <c r="G17" s="1">
         <v>10.660434</v>
       </c>
       <c r="H17" s="1">
-        <v>1172.750000</v>
+        <v>1172.75</v>
       </c>
       <c r="I17" s="1">
-        <v>-197.968000</v>
+        <v>-197.96799999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>38387.717396</v>
       </c>
       <c r="L17" s="1">
-        <v>10.663255</v>
+        <v>10.663254999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1198.030000</v>
+        <v>1198.03</v>
       </c>
       <c r="N17" s="1">
-        <v>-142.069000</v>
+        <v>-142.06899999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>38398.227513</v>
+        <v>38398.227512999998</v>
       </c>
       <c r="Q17" s="1">
         <v>10.666174</v>
       </c>
       <c r="R17" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="S17" s="1">
-        <v>-123.136000</v>
+        <v>-123.136</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>38408.743801</v>
+        <v>38408.743800999997</v>
       </c>
       <c r="V17" s="1">
         <v>10.669096</v>
       </c>
       <c r="W17" s="1">
-        <v>1215.030000</v>
+        <v>1215.03</v>
       </c>
       <c r="X17" s="1">
-        <v>-105.077000</v>
+        <v>-105.077</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>38419.287756</v>
+        <v>38419.287755999998</v>
       </c>
       <c r="AA17" s="1">
         <v>10.672024</v>
       </c>
       <c r="AB17" s="1">
-        <v>1224.040000</v>
+        <v>1224.04</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.886100</v>
+        <v>-89.886099999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>38430.067804</v>
+        <v>38430.067803999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>10.675019</v>
+        <v>10.675019000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.017700</v>
+        <v>-86.017700000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>38440.643502</v>
+        <v>38440.643501999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>10.677957</v>
+        <v>10.677956999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.742800</v>
+        <v>-89.742800000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>38451.457778</v>
+        <v>38451.457778000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>10.680960</v>
+        <v>10.680960000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1245.600000</v>
+        <v>1245.5999999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.841000</v>
+        <v>-101.84099999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>38462.314211</v>
+        <v>38462.314210999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>10.683976</v>
+        <v>10.683975999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1255.660000</v>
+        <v>1255.6600000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.294000</v>
+        <v>-121.294</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>38473.366564</v>
+        <v>38473.366564000004</v>
       </c>
       <c r="AZ17" s="1">
         <v>10.687046</v>
       </c>
       <c r="BA17" s="1">
-        <v>1264.150000</v>
+        <v>1264.1500000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.927000</v>
+        <v>-138.92699999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>38484.346502</v>
@@ -4501,195 +4917,195 @@
         <v>10.690096</v>
       </c>
       <c r="BF17" s="1">
-        <v>1304.080000</v>
+        <v>1304.08</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.690000</v>
+        <v>-221.69</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>38495.710838</v>
+        <v>38495.710837999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>10.693253</v>
       </c>
       <c r="BK17" s="1">
-        <v>1373.440000</v>
+        <v>1373.44</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.006000</v>
+        <v>-360.00599999999997</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>38506.413512</v>
+        <v>38506.413511999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>10.696226</v>
+        <v>10.696225999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1487.600000</v>
+        <v>1487.6</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-586.273000</v>
+        <v>-586.27300000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>38516.905387</v>
+        <v>38516.905386999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>10.699140</v>
+        <v>10.69914</v>
       </c>
       <c r="BU17" s="1">
-        <v>1619.430000</v>
+        <v>1619.43</v>
       </c>
       <c r="BV17" s="1">
-        <v>-842.161000</v>
+        <v>-842.16099999999994</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>38528.197835</v>
+        <v>38528.197834999999</v>
       </c>
       <c r="BY17" s="1">
         <v>10.702277</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1773.180000</v>
+        <v>1773.18</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1121.810000</v>
+        <v>-1121.81</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>38540.715338</v>
+        <v>38540.715338000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>10.705754</v>
+        <v>10.705754000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2194.920000</v>
+        <v>2194.92</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1802.010000</v>
+        <v>-1802.01</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>38367.786686</v>
+        <v>38367.786685999999</v>
       </c>
       <c r="B18" s="1">
         <v>10.657719</v>
       </c>
       <c r="C18" s="1">
-        <v>1155.280000</v>
+        <v>1155.28</v>
       </c>
       <c r="D18" s="1">
-        <v>-233.296000</v>
+        <v>-233.29599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>38377.909009</v>
+        <v>38377.909009000003</v>
       </c>
       <c r="G18" s="1">
-        <v>10.660530</v>
+        <v>10.66053</v>
       </c>
       <c r="H18" s="1">
-        <v>1172.650000</v>
+        <v>1172.6500000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-197.621000</v>
+        <v>-197.62100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>38388.062612</v>
+        <v>38388.062612000002</v>
       </c>
       <c r="L18" s="1">
         <v>10.663351</v>
       </c>
       <c r="M18" s="1">
-        <v>1198.210000</v>
+        <v>1198.21</v>
       </c>
       <c r="N18" s="1">
-        <v>-142.017000</v>
+        <v>-142.017</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>38398.575318</v>
+        <v>38398.575318000003</v>
       </c>
       <c r="Q18" s="1">
         <v>10.666271</v>
       </c>
       <c r="R18" s="1">
-        <v>1206.540000</v>
+        <v>1206.54</v>
       </c>
       <c r="S18" s="1">
-        <v>-123.138000</v>
+        <v>-123.13800000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>38409.397032</v>
+        <v>38409.397032000001</v>
       </c>
       <c r="V18" s="1">
-        <v>10.669277</v>
+        <v>10.669276999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1215.130000</v>
+        <v>1215.1300000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-105.046000</v>
+        <v>-105.04600000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>38419.942980</v>
+        <v>38419.94298</v>
       </c>
       <c r="AA18" s="1">
-        <v>10.672206</v>
+        <v>10.672205999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1224.120000</v>
+        <v>1224.1199999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.751600</v>
+        <v>-89.751599999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>38430.452206</v>
+        <v>38430.452206000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>10.675126</v>
+        <v>10.675126000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1229.570000</v>
+        <v>1229.57</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.016300</v>
+        <v>-86.016300000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>38440.990499</v>
@@ -4698,103 +5114,103 @@
         <v>10.678053</v>
       </c>
       <c r="AL18" s="1">
-        <v>1237.390000</v>
+        <v>1237.3900000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.710400</v>
+        <v>-89.710400000000007</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>38451.815426</v>
+        <v>38451.815426000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>10.681060</v>
+        <v>10.68106</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1245.580000</v>
+        <v>1245.58</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.852000</v>
+        <v>-101.852</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>38462.678802</v>
+        <v>38462.678802000002</v>
       </c>
       <c r="AU18" s="1">
         <v>10.684077</v>
       </c>
       <c r="AV18" s="1">
-        <v>1255.660000</v>
+        <v>1255.6600000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.332000</v>
+        <v>-121.33199999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>38473.799571</v>
+        <v>38473.799571000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>10.687167</v>
+        <v>10.687167000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1264.120000</v>
+        <v>1264.1199999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.913000</v>
+        <v>-138.91300000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>38484.774580</v>
+        <v>38484.774579999998</v>
       </c>
       <c r="BE18" s="1">
         <v>10.690215</v>
       </c>
       <c r="BF18" s="1">
-        <v>1304.120000</v>
+        <v>1304.1199999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.701000</v>
+        <v>-221.70099999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>38496.055097</v>
+        <v>38496.055096999997</v>
       </c>
       <c r="BJ18" s="1">
         <v>10.693349</v>
       </c>
       <c r="BK18" s="1">
-        <v>1373.430000</v>
+        <v>1373.43</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.030000</v>
+        <v>-360.03</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>38506.812792</v>
+        <v>38506.812791999997</v>
       </c>
       <c r="BO18" s="1">
         <v>10.696337</v>
       </c>
       <c r="BP18" s="1">
-        <v>1487.660000</v>
+        <v>1487.66</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-586.254000</v>
+        <v>-586.25400000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>38517.332939</v>
@@ -4803,28 +5219,28 @@
         <v>10.699259</v>
       </c>
       <c r="BU18" s="1">
-        <v>1619.470000</v>
+        <v>1619.47</v>
       </c>
       <c r="BV18" s="1">
-        <v>-842.120000</v>
+        <v>-842.12</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>38528.623866</v>
+        <v>38528.623866000002</v>
       </c>
       <c r="BY18" s="1">
         <v>10.702396</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1773.210000</v>
+        <v>1773.21</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1121.700000</v>
+        <v>-1121.7</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>38541.254987</v>
@@ -4833,482 +5249,482 @@
         <v>10.705904</v>
       </c>
       <c r="CE18" s="1">
-        <v>2197.390000</v>
+        <v>2197.39</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1800.500000</v>
+        <v>-1800.5</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>38368.137328</v>
+        <v>38368.137327999997</v>
       </c>
       <c r="B19" s="1">
         <v>10.657816</v>
       </c>
       <c r="C19" s="1">
-        <v>1155.320000</v>
+        <v>1155.32</v>
       </c>
       <c r="D19" s="1">
-        <v>-233.356000</v>
+        <v>-233.35599999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>38378.256210</v>
+        <v>38378.25621</v>
       </c>
       <c r="G19" s="1">
         <v>10.660627</v>
       </c>
       <c r="H19" s="1">
-        <v>1172.950000</v>
+        <v>1172.95</v>
       </c>
       <c r="I19" s="1">
-        <v>-198.445000</v>
+        <v>-198.44499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>38388.715347</v>
+        <v>38388.715346999998</v>
       </c>
       <c r="L19" s="1">
         <v>10.663532</v>
       </c>
       <c r="M19" s="1">
-        <v>1198.440000</v>
+        <v>1198.44</v>
       </c>
       <c r="N19" s="1">
-        <v>-141.670000</v>
+        <v>-141.66999999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>38399.242966</v>
+        <v>38399.242965999998</v>
       </c>
       <c r="Q19" s="1">
         <v>10.666456</v>
       </c>
       <c r="R19" s="1">
-        <v>1206.570000</v>
+        <v>1206.57</v>
       </c>
       <c r="S19" s="1">
-        <v>-123.064000</v>
+        <v>-123.06399999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>38409.773497</v>
+        <v>38409.773497000002</v>
       </c>
       <c r="V19" s="1">
-        <v>10.669382</v>
+        <v>10.669382000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1215.060000</v>
+        <v>1215.06</v>
       </c>
       <c r="X19" s="1">
-        <v>-104.930000</v>
+        <v>-104.93</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>38420.331835</v>
+        <v>38420.331834999997</v>
       </c>
       <c r="AA19" s="1">
         <v>10.672314</v>
       </c>
       <c r="AB19" s="1">
-        <v>1224.040000</v>
+        <v>1224.04</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.987500</v>
+        <v>-89.987499999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>38430.797915</v>
+        <v>38430.797915000003</v>
       </c>
       <c r="AF19" s="1">
         <v>10.675222</v>
       </c>
       <c r="AG19" s="1">
-        <v>1229.660000</v>
+        <v>1229.6600000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.041600</v>
+        <v>-86.041600000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>38441.340519</v>
+        <v>38441.340518999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>10.678150</v>
+        <v>10.67815</v>
       </c>
       <c r="AL19" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.754200</v>
+        <v>-89.754199999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>38452.176977</v>
+        <v>38452.176977000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>10.681160</v>
+        <v>10.68116</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1245.560000</v>
+        <v>1245.56</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.810000</v>
+        <v>-101.81</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>38463.097394</v>
+        <v>38463.097393999997</v>
       </c>
       <c r="AU19" s="1">
         <v>10.684194</v>
       </c>
       <c r="AV19" s="1">
-        <v>1255.650000</v>
+        <v>1255.6500000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.303000</v>
+        <v>-121.303</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>38474.086258</v>
+        <v>38474.086258000003</v>
       </c>
       <c r="AZ19" s="1">
         <v>10.687246</v>
       </c>
       <c r="BA19" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.946000</v>
+        <v>-138.946</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>38485.069739</v>
+        <v>38485.069738999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>10.690297</v>
+        <v>10.690296999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1304.100000</v>
+        <v>1304.0999999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.692000</v>
+        <v>-221.69200000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>38496.430038</v>
+        <v>38496.430037999999</v>
       </c>
       <c r="BJ19" s="1">
         <v>10.693453</v>
       </c>
       <c r="BK19" s="1">
-        <v>1373.430000</v>
+        <v>1373.43</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.033000</v>
+        <v>-360.03300000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>38507.230956</v>
+        <v>38507.230955999999</v>
       </c>
       <c r="BO19" s="1">
         <v>10.696453</v>
       </c>
       <c r="BP19" s="1">
-        <v>1487.610000</v>
+        <v>1487.61</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-586.237000</v>
+        <v>-586.23699999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>38517.758506</v>
+        <v>38517.758505999998</v>
       </c>
       <c r="BT19" s="1">
         <v>10.699377</v>
       </c>
       <c r="BU19" s="1">
-        <v>1619.590000</v>
+        <v>1619.59</v>
       </c>
       <c r="BV19" s="1">
-        <v>-842.117000</v>
+        <v>-842.11699999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>38529.039019</v>
+        <v>38529.039019000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>10.702511</v>
+        <v>10.702510999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1772.980000</v>
+        <v>1772.98</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1121.640000</v>
+        <v>-1121.6400000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>38541.796618</v>
       </c>
       <c r="CD19" s="1">
-        <v>10.706055</v>
+        <v>10.706054999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2194.260000</v>
+        <v>2194.2600000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1800.270000</v>
+        <v>-1800.27</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>38368.776704</v>
+        <v>38368.776704000004</v>
       </c>
       <c r="B20" s="1">
         <v>10.657994</v>
       </c>
       <c r="C20" s="1">
-        <v>1155.090000</v>
+        <v>1155.0899999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-233.358000</v>
+        <v>-233.358</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>38378.903986</v>
+        <v>38378.903985999998</v>
       </c>
       <c r="G20" s="1">
         <v>10.660807</v>
       </c>
       <c r="H20" s="1">
-        <v>1172.790000</v>
+        <v>1172.79</v>
       </c>
       <c r="I20" s="1">
-        <v>-197.857000</v>
+        <v>-197.857</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>38389.098755</v>
+        <v>38389.098754999999</v>
       </c>
       <c r="L20" s="1">
         <v>10.663639</v>
       </c>
       <c r="M20" s="1">
-        <v>1198.120000</v>
+        <v>1198.1199999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-141.777000</v>
+        <v>-141.77699999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>38399.623365</v>
+        <v>38399.623364999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>10.666562</v>
+        <v>10.666562000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1206.650000</v>
+        <v>1206.6500000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-123.044000</v>
+        <v>-123.044</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>38410.115736</v>
       </c>
       <c r="V20" s="1">
-        <v>10.669477</v>
+        <v>10.669477000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1215.110000</v>
+        <v>1215.1099999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-105.016000</v>
+        <v>-105.01600000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>38420.679561</v>
+        <v>38420.679560999997</v>
       </c>
       <c r="AA20" s="1">
         <v>10.672411</v>
       </c>
       <c r="AB20" s="1">
-        <v>1224.300000</v>
+        <v>1224.3</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.052300</v>
+        <v>-90.052300000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>38431.140659</v>
+        <v>38431.140658999997</v>
       </c>
       <c r="AF20" s="1">
         <v>10.675317</v>
       </c>
       <c r="AG20" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.022000</v>
+        <v>-86.022000000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>38441.758045</v>
+        <v>38441.758045000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>10.678266</v>
+        <v>10.678266000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.738900</v>
+        <v>-89.738900000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>38452.599604</v>
+        <v>38452.599604000003</v>
       </c>
       <c r="AP20" s="1">
-        <v>10.681278</v>
+        <v>10.681278000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1245.620000</v>
+        <v>1245.6199999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.816000</v>
+        <v>-101.816</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>38463.411856</v>
+        <v>38463.411855999999</v>
       </c>
       <c r="AU20" s="1">
         <v>10.684281</v>
       </c>
       <c r="AV20" s="1">
-        <v>1255.660000</v>
+        <v>1255.6600000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.318000</v>
+        <v>-121.318</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>38474.442418</v>
+        <v>38474.442417999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>10.687345</v>
+        <v>10.687345000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1264.110000</v>
+        <v>1264.1099999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.941000</v>
+        <v>-138.941</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>38485.431747</v>
+        <v>38485.431747000002</v>
       </c>
       <c r="BE20" s="1">
         <v>10.690398</v>
       </c>
       <c r="BF20" s="1">
-        <v>1304.110000</v>
+        <v>1304.1099999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.680000</v>
+        <v>-221.68</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>38496.804550</v>
+        <v>38496.804550000001</v>
       </c>
       <c r="BJ20" s="1">
         <v>10.693557</v>
       </c>
       <c r="BK20" s="1">
-        <v>1373.410000</v>
+        <v>1373.41</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.021000</v>
+        <v>-360.02100000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>38507.626759</v>
+        <v>38507.626758999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>10.696563</v>
+        <v>10.696562999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1487.630000</v>
+        <v>1487.63</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-586.274000</v>
+        <v>-586.274</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>38518.174648</v>
@@ -5317,60 +5733,60 @@
         <v>10.699493</v>
       </c>
       <c r="BU20" s="1">
-        <v>1619.490000</v>
+        <v>1619.49</v>
       </c>
       <c r="BV20" s="1">
-        <v>-842.131000</v>
+        <v>-842.13099999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>38529.493353</v>
+        <v>38529.493352999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>10.702637</v>
+        <v>10.702636999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1773.060000</v>
+        <v>1773.06</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1121.710000</v>
+        <v>-1121.71</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>38542.335305</v>
+        <v>38542.335305000001</v>
       </c>
       <c r="CD20" s="1">
         <v>10.706204</v>
       </c>
       <c r="CE20" s="1">
-        <v>2196.100000</v>
+        <v>2196.1</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1802.170000</v>
+        <v>-1802.17</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>38369.154623</v>
+        <v>38369.154623000002</v>
       </c>
       <c r="B21" s="1">
         <v>10.658099</v>
       </c>
       <c r="C21" s="1">
-        <v>1155.200000</v>
+        <v>1155.2</v>
       </c>
       <c r="D21" s="1">
-        <v>-233.573000</v>
+        <v>-233.57300000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>38379.288881</v>
@@ -5379,133 +5795,133 @@
         <v>10.660914</v>
       </c>
       <c r="H21" s="1">
-        <v>1173.120000</v>
+        <v>1173.1199999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-198.063000</v>
+        <v>-198.06299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>38389.444501</v>
+        <v>38389.444500999998</v>
       </c>
       <c r="L21" s="1">
-        <v>10.663735</v>
+        <v>10.663735000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1198.040000</v>
+        <v>1198.04</v>
       </c>
       <c r="N21" s="1">
-        <v>-142.134000</v>
+        <v>-142.13399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>38399.973044</v>
+        <v>38399.973043999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>10.666659</v>
+        <v>10.666658999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1206.610000</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-123.071000</v>
+        <v>-123.071</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>38410.461446</v>
+        <v>38410.461446000001</v>
       </c>
       <c r="V21" s="1">
         <v>10.669573</v>
       </c>
       <c r="W21" s="1">
-        <v>1215.100000</v>
+        <v>1215.0999999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-104.928000</v>
+        <v>-104.928</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>38421.094184</v>
+        <v>38421.094184000001</v>
       </c>
       <c r="AA21" s="1">
         <v>10.672526</v>
       </c>
       <c r="AB21" s="1">
-        <v>1224.160000</v>
+        <v>1224.1600000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.861600</v>
+        <v>-89.861599999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>38431.554841</v>
+        <v>38431.554840999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>10.675432</v>
+        <v>10.675432000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.995800</v>
+        <v>-85.995800000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>38442.037292</v>
+        <v>38442.037292000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>10.678344</v>
+        <v>10.678343999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.728400</v>
+        <v>-89.728399999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>38452.896175</v>
+        <v>38452.896175000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>10.681360</v>
+        <v>10.68136</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1245.590000</v>
+        <v>1245.5899999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.832000</v>
+        <v>-101.83199999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>38463.773441</v>
+        <v>38463.773440999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>10.684382</v>
+        <v>10.684381999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1255.650000</v>
+        <v>1255.6500000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.349000</v>
+        <v>-121.349</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>38474.802978</v>
@@ -5514,634 +5930,634 @@
         <v>10.687445</v>
       </c>
       <c r="BA21" s="1">
-        <v>1264.140000</v>
+        <v>1264.1400000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.931000</v>
+        <v>-138.93100000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>38485.793331</v>
+        <v>38485.793331000001</v>
       </c>
       <c r="BE21" s="1">
         <v>10.690498</v>
       </c>
       <c r="BF21" s="1">
-        <v>1304.100000</v>
+        <v>1304.0999999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.684000</v>
+        <v>-221.684</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>38497.555493</v>
       </c>
       <c r="BJ21" s="1">
-        <v>10.693765</v>
+        <v>10.693765000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1373.470000</v>
+        <v>1373.47</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.012000</v>
+        <v>-360.012</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>38508.101894</v>
+        <v>38508.101893999999</v>
       </c>
       <c r="BO21" s="1">
         <v>10.696695</v>
       </c>
       <c r="BP21" s="1">
-        <v>1487.570000</v>
+        <v>1487.57</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-586.237000</v>
+        <v>-586.23699999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>38518.601209</v>
       </c>
       <c r="BT21" s="1">
-        <v>10.699611</v>
+        <v>10.699611000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1619.480000</v>
+        <v>1619.48</v>
       </c>
       <c r="BV21" s="1">
-        <v>-842.240000</v>
+        <v>-842.24</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>38529.940744</v>
       </c>
       <c r="BY21" s="1">
-        <v>10.702761</v>
+        <v>10.702761000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1773.030000</v>
+        <v>1773.03</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1121.660000</v>
+        <v>-1121.6600000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>38542.873929</v>
+        <v>38542.873929000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>10.706354</v>
+        <v>10.706353999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2196.810000</v>
+        <v>2196.81</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1799.790000</v>
+        <v>-1799.79</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>38369.502812</v>
+        <v>38369.502811999999</v>
       </c>
       <c r="B22" s="1">
-        <v>10.658195</v>
+        <v>10.658194999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1154.940000</v>
+        <v>1154.94</v>
       </c>
       <c r="D22" s="1">
-        <v>-233.645000</v>
+        <v>-233.64500000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>38379.637072</v>
+        <v>38379.637071999998</v>
       </c>
       <c r="G22" s="1">
-        <v>10.661010</v>
+        <v>10.661009999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1173.680000</v>
+        <v>1173.68</v>
       </c>
       <c r="I22" s="1">
-        <v>-197.830000</v>
+        <v>-197.83</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>38389.788722</v>
+        <v>38389.788721999998</v>
       </c>
       <c r="L22" s="1">
-        <v>10.663830</v>
+        <v>10.663830000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1198.390000</v>
+        <v>1198.3900000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-141.818000</v>
+        <v>-141.81800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>38400.320245</v>
+        <v>38400.320245000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>10.666756</v>
+        <v>10.666755999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1206.600000</v>
+        <v>1206.5999999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-123.115000</v>
+        <v>-123.11499999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>38410.876450</v>
+        <v>38410.876450000003</v>
       </c>
       <c r="V22" s="1">
-        <v>10.669688</v>
+        <v>10.669688000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1215.130000</v>
+        <v>1215.1300000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-105.069000</v>
+        <v>-105.069</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>38421.378920</v>
+        <v>38421.378920000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>10.672605</v>
+        <v>10.672605000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1223.970000</v>
+        <v>1223.97</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.872200</v>
+        <v>-89.872200000000007</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>38431.851420</v>
+        <v>38431.851419999999</v>
       </c>
       <c r="AF22" s="1">
         <v>10.675514</v>
       </c>
       <c r="AG22" s="1">
-        <v>1229.590000</v>
+        <v>1229.5899999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.972800</v>
+        <v>-85.972800000000007</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>38442.382972</v>
+        <v>38442.382971999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>10.678440</v>
+        <v>10.67844</v>
       </c>
       <c r="AL22" s="1">
-        <v>1237.370000</v>
+        <v>1237.3699999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.742600</v>
+        <v>-89.742599999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>38453.255279</v>
+        <v>38453.255278999997</v>
       </c>
       <c r="AP22" s="1">
-        <v>10.681460</v>
+        <v>10.68146</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1245.550000</v>
+        <v>1245.55</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.819000</v>
+        <v>-101.819</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>38464.140976</v>
+        <v>38464.140976000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>10.684484</v>
+        <v>10.684483999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1255.670000</v>
+        <v>1255.67</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.312000</v>
+        <v>-121.312</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>38475.518241</v>
+        <v>38475.518240999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>10.687644</v>
+        <v>10.687644000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1264.150000</v>
+        <v>1264.1500000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.951000</v>
+        <v>-138.95099999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>38486.516532</v>
+        <v>38486.516532000001</v>
       </c>
       <c r="BE22" s="1">
         <v>10.690699</v>
       </c>
       <c r="BF22" s="1">
-        <v>1304.120000</v>
+        <v>1304.1199999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.709000</v>
+        <v>-221.709</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>38497.930467</v>
+        <v>38497.930466999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>10.693870</v>
+        <v>10.69387</v>
       </c>
       <c r="BK22" s="1">
-        <v>1373.440000</v>
+        <v>1373.44</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.065000</v>
+        <v>-360.065</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>38508.445161</v>
+        <v>38508.445161000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>10.696790</v>
+        <v>10.69679</v>
       </c>
       <c r="BP22" s="1">
-        <v>1487.610000</v>
+        <v>1487.61</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-586.257000</v>
+        <v>-586.25699999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>38519.029783</v>
+        <v>38519.029782999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>10.699730</v>
+        <v>10.699730000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1619.500000</v>
+        <v>1619.5</v>
       </c>
       <c r="BV22" s="1">
-        <v>-842.090000</v>
+        <v>-842.09</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>38530.707560</v>
+        <v>38530.707560000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>10.702974</v>
+        <v>10.702973999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1772.990000</v>
+        <v>1772.99</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1121.750000</v>
+        <v>-1121.75</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>38543.738495</v>
+        <v>38543.738494999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>10.706594</v>
+        <v>10.706594000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2196.620000</v>
+        <v>2196.62</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1802.270000</v>
+        <v>-1802.27</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>38369.844061</v>
+        <v>38369.844061000003</v>
       </c>
       <c r="B23" s="1">
-        <v>10.658290</v>
+        <v>10.658289999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1155.240000</v>
+        <v>1155.24</v>
       </c>
       <c r="D23" s="1">
-        <v>-233.126000</v>
+        <v>-233.126</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>38379.977855</v>
+        <v>38379.977854999997</v>
       </c>
       <c r="G23" s="1">
-        <v>10.661105</v>
+        <v>10.661104999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1173.420000</v>
+        <v>1173.42</v>
       </c>
       <c r="I23" s="1">
-        <v>-197.891000</v>
+        <v>-197.89099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>38390.204834</v>
+        <v>38390.204833999996</v>
       </c>
       <c r="L23" s="1">
-        <v>10.663946</v>
+        <v>10.663945999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1198.350000</v>
+        <v>1198.3499999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-141.627000</v>
+        <v>-141.62700000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>38400.747797</v>
+        <v>38400.747797000004</v>
       </c>
       <c r="Q23" s="1">
         <v>10.666874</v>
       </c>
       <c r="R23" s="1">
-        <v>1206.550000</v>
+        <v>1206.55</v>
       </c>
       <c r="S23" s="1">
-        <v>-123.057000</v>
+        <v>-123.057</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>38411.176477</v>
+        <v>38411.176477000001</v>
       </c>
       <c r="V23" s="1">
-        <v>10.669771</v>
+        <v>10.669771000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1215.090000</v>
+        <v>1215.0899999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-105.057000</v>
+        <v>-105.057</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>38421.726583</v>
+        <v>38421.726583000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>10.672702</v>
+        <v>10.672701999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1224.170000</v>
+        <v>1224.17</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.874300</v>
+        <v>-89.874300000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>38432.195146</v>
+        <v>38432.195145999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>10.675610</v>
+        <v>10.675610000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1229.550000</v>
+        <v>1229.55</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.977900</v>
+        <v>-85.977900000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>38442.732188</v>
+        <v>38442.732188000002</v>
       </c>
       <c r="AK23" s="1">
         <v>10.678537</v>
       </c>
       <c r="AL23" s="1">
-        <v>1237.350000</v>
+        <v>1237.3499999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.751700</v>
+        <v>-89.7517</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>38453.618350</v>
+        <v>38453.618349999997</v>
       </c>
       <c r="AP23" s="1">
         <v>10.681561</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1245.570000</v>
+        <v>1245.57</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.830000</v>
+        <v>-101.83</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>38464.866654</v>
+        <v>38464.866653999998</v>
       </c>
       <c r="AU23" s="1">
         <v>10.684685</v>
       </c>
       <c r="AV23" s="1">
-        <v>1255.680000</v>
+        <v>1255.68</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.346000</v>
+        <v>-121.346</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>38475.879329</v>
+        <v>38475.879329000003</v>
       </c>
       <c r="AZ23" s="1">
         <v>10.687744</v>
       </c>
       <c r="BA23" s="1">
-        <v>1264.150000</v>
+        <v>1264.1500000000001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.958000</v>
+        <v>-138.958</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>38486.877619</v>
+        <v>38486.877618999999</v>
       </c>
       <c r="BE23" s="1">
         <v>10.690799</v>
       </c>
       <c r="BF23" s="1">
-        <v>1304.100000</v>
+        <v>1304.0999999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.685000</v>
+        <v>-221.685</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>38498.305410</v>
+        <v>38498.305410000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>10.693974</v>
+        <v>10.693974000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1373.460000</v>
+        <v>1373.46</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.031000</v>
+        <v>-360.03100000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>38509.171305</v>
+        <v>38509.171305000003</v>
       </c>
       <c r="BO23" s="1">
         <v>10.696992</v>
       </c>
       <c r="BP23" s="1">
-        <v>1487.650000</v>
+        <v>1487.65</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-586.262000</v>
+        <v>-586.26199999999994</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>38519.758870</v>
+        <v>38519.758869999998</v>
       </c>
       <c r="BT23" s="1">
         <v>10.699933</v>
       </c>
       <c r="BU23" s="1">
-        <v>1619.570000</v>
+        <v>1619.57</v>
       </c>
       <c r="BV23" s="1">
-        <v>-842.222000</v>
+        <v>-842.22199999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>38530.847929</v>
+        <v>38530.847929000003</v>
       </c>
       <c r="BY23" s="1">
         <v>10.703013</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1773.140000</v>
+        <v>1773.14</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1121.700000</v>
+        <v>-1121.7</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>38543.954216</v>
+        <v>38543.954215999998</v>
       </c>
       <c r="CD23" s="1">
         <v>10.706654</v>
       </c>
       <c r="CE23" s="1">
-        <v>2196.620000</v>
+        <v>2196.62</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1801.900000</v>
+        <v>-1801.9</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>38370.258716</v>
+        <v>38370.258715999997</v>
       </c>
       <c r="B24" s="1">
         <v>10.658405</v>
       </c>
       <c r="C24" s="1">
-        <v>1155.180000</v>
+        <v>1155.18</v>
       </c>
       <c r="D24" s="1">
-        <v>-233.451000</v>
+        <v>-233.45099999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>38380.397438</v>
@@ -6150,148 +6566,148 @@
         <v>10.661222</v>
       </c>
       <c r="H24" s="1">
-        <v>1173.220000</v>
+        <v>1173.22</v>
       </c>
       <c r="I24" s="1">
-        <v>-198.157000</v>
+        <v>-198.15700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>38390.491521</v>
+        <v>38390.491521000004</v>
       </c>
       <c r="L24" s="1">
-        <v>10.664025</v>
+        <v>10.664025000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1198.300000</v>
+        <v>1198.3</v>
       </c>
       <c r="N24" s="1">
-        <v>-141.886000</v>
+        <v>-141.886</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>38401.023571</v>
+        <v>38401.023570999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>10.666951</v>
+        <v>10.666950999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1206.570000</v>
+        <v>1206.57</v>
       </c>
       <c r="S24" s="1">
-        <v>-123.025000</v>
+        <v>-123.02500000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>38411.518421</v>
+        <v>38411.518421000001</v>
       </c>
       <c r="V24" s="1">
-        <v>10.669866</v>
+        <v>10.669866000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1215.070000</v>
+        <v>1215.07</v>
       </c>
       <c r="X24" s="1">
-        <v>-104.970000</v>
+        <v>-104.97</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>38422.075529</v>
+        <v>38422.075529000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>10.672799</v>
+        <v>10.672798999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1224.140000</v>
+        <v>1224.1400000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.946200</v>
+        <v>-89.946200000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>38432.538418</v>
+        <v>38432.538417999996</v>
       </c>
       <c r="AF24" s="1">
-        <v>10.675705</v>
+        <v>10.675705000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1229.570000</v>
+        <v>1229.57</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.014500</v>
+        <v>-86.014499999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>38443.430059</v>
+        <v>38443.430058999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>10.678731</v>
+        <v>10.678731000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1237.350000</v>
+        <v>1237.3499999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.711300</v>
+        <v>-89.711299999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>38454.344988</v>
+        <v>38454.344987999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>10.681762</v>
+        <v>10.681762000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1245.560000</v>
+        <v>1245.56</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.808000</v>
+        <v>-101.80800000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>38465.258494</v>
+        <v>38465.258494000002</v>
       </c>
       <c r="AU24" s="1">
         <v>10.684794</v>
       </c>
       <c r="AV24" s="1">
-        <v>1255.670000</v>
+        <v>1255.67</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.324000</v>
+        <v>-121.324</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>38476.237409</v>
+        <v>38476.237409000001</v>
       </c>
       <c r="AZ24" s="1">
         <v>10.687844</v>
       </c>
       <c r="BA24" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.946000</v>
+        <v>-138.946</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>38487.238178</v>
@@ -6300,28 +6716,28 @@
         <v>10.690899</v>
       </c>
       <c r="BF24" s="1">
-        <v>1304.130000</v>
+        <v>1304.1300000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.695000</v>
+        <v>-221.69499999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>38498.997858</v>
+        <v>38498.997858000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>10.694166</v>
+        <v>10.694165999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1373.450000</v>
+        <v>1373.45</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.052000</v>
+        <v>-360.05200000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>38509.280884</v>
@@ -6330,90 +6746,90 @@
         <v>10.697022</v>
       </c>
       <c r="BP24" s="1">
-        <v>1487.680000</v>
+        <v>1487.68</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-586.242000</v>
+        <v>-586.24199999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>38519.873446</v>
+        <v>38519.873445999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>10.699965</v>
+        <v>10.699965000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1619.520000</v>
+        <v>1619.52</v>
       </c>
       <c r="BV24" s="1">
-        <v>-842.193000</v>
+        <v>-842.19299999999998</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>38531.267544</v>
+        <v>38531.267544000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>10.703130</v>
+        <v>10.70313</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1773.140000</v>
+        <v>1773.14</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1121.790000</v>
+        <v>-1121.79</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>38544.471541</v>
+        <v>38544.471540999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>10.706798</v>
+        <v>10.706797999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2196.320000</v>
+        <v>2196.3200000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1799.820000</v>
+        <v>-1799.82</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>38370.544413</v>
+        <v>38370.544413000003</v>
       </c>
       <c r="B25" s="1">
-        <v>10.658485</v>
+        <v>10.658485000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1155.360000</v>
+        <v>1155.3599999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-233.491000</v>
+        <v>-233.49100000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>38380.669743</v>
+        <v>38380.669742999999</v>
       </c>
       <c r="G25" s="1">
-        <v>10.661297</v>
+        <v>10.661296999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1173.380000</v>
+        <v>1173.3800000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-197.911000</v>
+        <v>-197.911</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>38390.841729</v>
@@ -6422,482 +6838,483 @@
         <v>10.664123</v>
       </c>
       <c r="M25" s="1">
-        <v>1198.300000</v>
+        <v>1198.3</v>
       </c>
       <c r="N25" s="1">
-        <v>-142.143000</v>
+        <v>-142.143</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>38401.374253</v>
+        <v>38401.374253000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>10.667048</v>
+        <v>10.667047999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1206.600000</v>
+        <v>1206.5999999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-122.998000</v>
+        <v>-122.998</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>38411.859185</v>
+        <v>38411.859185000001</v>
       </c>
       <c r="V25" s="1">
-        <v>10.669961</v>
+        <v>10.669961000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1215.150000</v>
+        <v>1215.1500000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-105.019000</v>
+        <v>-105.01900000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>38422.772646</v>
+        <v>38422.772645999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>10.672992</v>
+        <v>10.672992000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1224.230000</v>
+        <v>1224.23</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.870100</v>
+        <v>-89.870099999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>38433.224535</v>
+        <v>38433.224535000001</v>
       </c>
       <c r="AF25" s="1">
         <v>10.675896</v>
       </c>
       <c r="AG25" s="1">
-        <v>1229.570000</v>
+        <v>1229.57</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.992700</v>
+        <v>-85.992699999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>38443.781196</v>
+        <v>38443.781196000004</v>
       </c>
       <c r="AK25" s="1">
-        <v>10.678828</v>
+        <v>10.678827999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.747900</v>
+        <v>-89.747900000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>38454.723437</v>
+        <v>38454.723437000001</v>
       </c>
       <c r="AP25" s="1">
         <v>10.681868</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1245.570000</v>
+        <v>1245.57</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.827000</v>
+        <v>-101.827</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>38465.624049</v>
+        <v>38465.624048999998</v>
       </c>
       <c r="AU25" s="1">
         <v>10.684896</v>
       </c>
       <c r="AV25" s="1">
-        <v>1255.670000</v>
+        <v>1255.67</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.321000</v>
+        <v>-121.321</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>38476.908495</v>
+        <v>38476.908495000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>10.688030</v>
+        <v>10.688029999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1264.110000</v>
+        <v>1264.1099999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.926000</v>
+        <v>-138.92599999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>38487.914752</v>
+        <v>38487.914751999997</v>
       </c>
       <c r="BE25" s="1">
         <v>10.691087</v>
       </c>
       <c r="BF25" s="1">
-        <v>1304.110000</v>
+        <v>1304.1099999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.673000</v>
+        <v>-221.673</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>38499.434305</v>
+        <v>38499.434305000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>10.694287</v>
+        <v>10.694286999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1373.410000</v>
+        <v>1373.41</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.016000</v>
+        <v>-360.01600000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>38509.685652</v>
       </c>
       <c r="BO25" s="1">
-        <v>10.697135</v>
+        <v>10.697134999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1487.640000</v>
+        <v>1487.64</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-586.261000</v>
+        <v>-586.26099999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>38520.311944</v>
+        <v>38520.311944000001</v>
       </c>
       <c r="BT25" s="1">
         <v>10.700087</v>
       </c>
       <c r="BU25" s="1">
-        <v>1619.530000</v>
+        <v>1619.53</v>
       </c>
       <c r="BV25" s="1">
-        <v>-842.191000</v>
+        <v>-842.19100000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>38531.689638</v>
+        <v>38531.689638000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>10.703247</v>
+        <v>10.703246999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1773.090000</v>
+        <v>1773.09</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1121.690000</v>
+        <v>-1121.69</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>38544.991846</v>
+        <v>38544.991845999997</v>
       </c>
       <c r="CD25" s="1">
         <v>10.706942</v>
       </c>
       <c r="CE25" s="1">
-        <v>2194.760000</v>
+        <v>2194.7600000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1801.920000</v>
+        <v>-1801.92</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>38370.882714</v>
+        <v>38370.882713999999</v>
       </c>
       <c r="B26" s="1">
         <v>10.658579</v>
       </c>
       <c r="C26" s="1">
-        <v>1155.210000</v>
+        <v>1155.21</v>
       </c>
       <c r="D26" s="1">
-        <v>-233.292000</v>
+        <v>-233.292</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>38381.013471</v>
+        <v>38381.013470999998</v>
       </c>
       <c r="G26" s="1">
         <v>10.661393</v>
       </c>
       <c r="H26" s="1">
-        <v>1172.630000</v>
+        <v>1172.6300000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-198.051000</v>
+        <v>-198.05099999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>38391.185920</v>
+        <v>38391.185920000004</v>
       </c>
       <c r="L26" s="1">
         <v>10.664218</v>
       </c>
       <c r="M26" s="1">
-        <v>1198.450000</v>
+        <v>1198.45</v>
       </c>
       <c r="N26" s="1">
-        <v>-142.171000</v>
+        <v>-142.17099999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>38401.723426</v>
+        <v>38401.723425999997</v>
       </c>
       <c r="Q26" s="1">
         <v>10.667145</v>
       </c>
       <c r="R26" s="1">
-        <v>1206.640000</v>
+        <v>1206.6400000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-123.019000</v>
+        <v>-123.01900000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>38412.547125</v>
+        <v>38412.547124999997</v>
       </c>
       <c r="V26" s="1">
         <v>10.670152</v>
       </c>
       <c r="W26" s="1">
-        <v>1215.060000</v>
+        <v>1215.06</v>
       </c>
       <c r="X26" s="1">
-        <v>-105.060000</v>
+        <v>-105.06</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>38423.121335</v>
+        <v>38423.121335000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>10.673089</v>
+        <v>10.673088999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1224.080000</v>
+        <v>1224.08</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.872400</v>
+        <v>-89.872399999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>38433.568569</v>
+        <v>38433.568569000003</v>
       </c>
       <c r="AF26" s="1">
         <v>10.675991</v>
       </c>
       <c r="AG26" s="1">
-        <v>1229.640000</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.974300</v>
+        <v>-85.974299999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>38444.129420</v>
+        <v>38444.129419999997</v>
       </c>
       <c r="AK26" s="1">
         <v>10.678925</v>
       </c>
       <c r="AL26" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.735100</v>
+        <v>-89.735100000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>38455.082044</v>
+        <v>38455.082044000002</v>
       </c>
       <c r="AP26" s="1">
         <v>10.681967</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1245.600000</v>
+        <v>1245.5999999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.837000</v>
+        <v>-101.837</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>38466.296590</v>
+        <v>38466.296589999998</v>
       </c>
       <c r="AU26" s="1">
         <v>10.685082</v>
       </c>
       <c r="AV26" s="1">
-        <v>1255.650000</v>
+        <v>1255.6500000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.320000</v>
+        <v>-121.32</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>38477.342012</v>
+        <v>38477.342012000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>10.688151</v>
       </c>
       <c r="BA26" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.925000</v>
+        <v>-138.92500000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>38488.349711</v>
+        <v>38488.349711000003</v>
       </c>
       <c r="BE26" s="1">
         <v>10.691208</v>
       </c>
       <c r="BF26" s="1">
-        <v>1304.110000</v>
+        <v>1304.1099999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.717000</v>
+        <v>-221.71700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>38499.808326</v>
+        <v>38499.808325999998</v>
       </c>
       <c r="BJ26" s="1">
         <v>10.694391</v>
       </c>
       <c r="BK26" s="1">
-        <v>1373.460000</v>
+        <v>1373.46</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.086000</v>
+        <v>-360.08600000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>38510.081429</v>
+        <v>38510.081428999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>10.697245</v>
+        <v>10.697245000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1487.630000</v>
+        <v>1487.63</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-586.305000</v>
+        <v>-586.30499999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>38520.737013</v>
+        <v>38520.737012999998</v>
       </c>
       <c r="BT26" s="1">
         <v>10.700205</v>
       </c>
       <c r="BU26" s="1">
-        <v>1619.470000</v>
+        <v>1619.47</v>
       </c>
       <c r="BV26" s="1">
-        <v>-842.187000</v>
+        <v>-842.18700000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>38532.143479</v>
+        <v>38532.143478999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>10.703373</v>
+        <v>10.703372999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1773.010000</v>
+        <v>1773.01</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1121.720000</v>
+        <v>-1121.72</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>38545.531988</v>
+        <v>38545.531988000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>10.707092</v>
+        <v>10.707091999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2197.860000</v>
+        <v>2197.86</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1800.860000</v>
+        <v>-1800.86</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>